--- a/Data/MPD Communications Codes.xlsx
+++ b/Data/MPD Communications Codes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19515" windowHeight="11415" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19515" windowHeight="11415"/>
   </bookViews>
   <sheets>
     <sheet name="Police" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="283">
   <si>
     <t>ABAND/STOLEN PROP</t>
   </si>
@@ -878,6 +878,9 @@
   </si>
   <si>
     <t>IsMedical</t>
+  </si>
+  <si>
+    <t>IsOtherCrime</t>
   </si>
 </sst>
 </file>
@@ -1206,11 +1209,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H196"/>
+  <dimension ref="A1:I196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,7 +1221,7 @@
     <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>135</v>
       </c>
@@ -1240,8 +1243,11 @@
       <c r="G1" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1263,12 +1269,15 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" t="str">
-        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('" &amp; A2 &amp; "', " &amp; C2 &amp; ", " &amp; D2 &amp; ", " &amp; E2 &amp; ", " &amp; F2 &amp; ", " &amp; G2 &amp; ")"</f>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('AIRCRFT DWN', 1, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A2 &amp; "', " &amp; C2 &amp; ", " &amp; D2 &amp; ", " &amp; E2 &amp; ", " &amp; F2 &amp; ", " &amp; G2 &amp; ", " &amp; H2 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('AIRCRFT DWN', 1, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -1290,12 +1299,15 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H66" si="0">"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('" &amp; A3 &amp; "', " &amp; C3 &amp; ", " &amp; D3 &amp; ", " &amp; E3 &amp; ", " &amp; F3 &amp; ", " &amp; G3 &amp; ")"</f>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('BOMB THREAT', 1, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A3 &amp; "', " &amp; C3 &amp; ", " &amp; D3 &amp; ", " &amp; E3 &amp; ", " &amp; F3 &amp; ", " &amp; G3 &amp; ", " &amp; H3 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('BOMB THREAT', 1, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>131</v>
       </c>
@@ -1317,12 +1329,15 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('DEMONSTRATION', 1, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A4 &amp; "', " &amp; C4 &amp; ", " &amp; D4 &amp; ", " &amp; E4 &amp; ", " &amp; F4 &amp; ", " &amp; G4 &amp; ", " &amp; H4 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('DEMONSTRATION', 1, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1344,12 +1359,15 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('EXPLOSION', 1, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A5 &amp; "', " &amp; C5 &amp; ", " &amp; D5 &amp; ", " &amp; E5 &amp; ", " &amp; F5 &amp; ", " &amp; G5 &amp; ", " &amp; H5 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('EXPLOSION', 1, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1371,12 +1389,15 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('EXPLOSIVES', 1, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A6 &amp; "', " &amp; C6 &amp; ", " &amp; D6 &amp; ", " &amp; E6 &amp; ", " &amp; F6 &amp; ", " &amp; G6 &amp; ", " &amp; H6 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('EXPLOSIVES', 1, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -1398,12 +1419,15 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('GAS LEAK', 1, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A7 &amp; "', " &amp; C7 &amp; ", " &amp; D7 &amp; ", " &amp; E7 &amp; ", " &amp; F7 &amp; ", " &amp; G7 &amp; ", " &amp; H7 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('GAS LEAK', 1, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -1425,12 +1449,15 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('HAZ WASTE MAT', 1, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A8 &amp; "', " &amp; C8 &amp; ", " &amp; D8 &amp; ", " &amp; E8 &amp; ", " &amp; F8 &amp; ", " &amp; G8 &amp; ", " &amp; H8 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('HAZ WASTE MAT', 1, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -1452,12 +1479,15 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('HOSTAGE SIT', 1, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A9 &amp; "', " &amp; C9 &amp; ", " &amp; D9 &amp; ", " &amp; E9 &amp; ", " &amp; F9 &amp; ", " &amp; G9 &amp; ", " &amp; H9 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('HOSTAGE SIT', 1, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>128</v>
       </c>
@@ -1479,12 +1509,15 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('LOST CHILD', 1, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A10 &amp; "', " &amp; C10 &amp; ", " &amp; D10 &amp; ", " &amp; E10 &amp; ", " &amp; F10 &amp; ", " &amp; G10 &amp; ", " &amp; H10 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('LOST CHILD', 1, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -1506,12 +1539,15 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('MISSING REPT CRIT', 1, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A11 &amp; "', " &amp; C11 &amp; ", " &amp; D11 &amp; ", " &amp; E11 &amp; ", " &amp; F11 &amp; ", " &amp; G11 &amp; ", " &amp; H11 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('MISSING REPT CRIT', 1, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -1533,12 +1569,15 @@
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="H12" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('MOST WANTED (MKE)', 1, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A12 &amp; "', " &amp; C12 &amp; ", " &amp; D12 &amp; ", " &amp; E12 &amp; ", " &amp; F12 &amp; ", " &amp; G12 &amp; ", " &amp; H12 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('MOST WANTED (MKE)', 1, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -1560,12 +1599,15 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('TORNADO TCHDWN', 1, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A13 &amp; "', " &amp; C13 &amp; ", " &amp; D13 &amp; ", " &amp; E13 &amp; ", " &amp; F13 &amp; ", " &amp; G13 &amp; ", " &amp; H13 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('TORNADO TCHDWN', 1, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1587,12 +1629,15 @@
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('ABDUCTION', 0, 1, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A14 &amp; "', " &amp; C14 &amp; ", " &amp; D14 &amp; ", " &amp; E14 &amp; ", " &amp; F14 &amp; ", " &amp; G14 &amp; ", " &amp; H14 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('ABDUCTION', 0, 1, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -1614,12 +1659,15 @@
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="H15" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('BATTERY', 0, 1, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A15 &amp; "', " &amp; C15 &amp; ", " &amp; D15 &amp; ", " &amp; E15 &amp; ", " &amp; F15 &amp; ", " &amp; G15 &amp; ", " &amp; H15 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('BATTERY', 0, 1, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -1641,12 +1689,15 @@
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('BATTERY CUTTING', 0, 1, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A16 &amp; "', " &amp; C16 &amp; ", " &amp; D16 &amp; ", " &amp; E16 &amp; ", " &amp; F16 &amp; ", " &amp; G16 &amp; ", " &amp; H16 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('BATTERY CUTTING', 0, 1, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -1668,531 +1719,591 @@
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="H17" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('BATTERY DV', 0, 1, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A17 &amp; "', " &amp; C17 &amp; ", " &amp; D17 &amp; ", " &amp; E17 &amp; ", " &amp; F17 &amp; ", " &amp; G17 &amp; ", " &amp; H17 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('BATTERY DV', 0, 1, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A18 &amp; "', " &amp; C18 &amp; ", " &amp; D18 &amp; ", " &amp; E18 &amp; ", " &amp; F18 &amp; ", " &amp; G18 &amp; ", " &amp; H18 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('DEAD ON ENTRY', 0, 1, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A19 &amp; "', " &amp; C19 &amp; ", " &amp; D19 &amp; ", " &amp; E19 &amp; ", " &amp; F19 &amp; ", " &amp; G19 &amp; ", " &amp; H19 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('FIGHT', 0, 1, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A20 &amp; "', " &amp; C20 &amp; ", " &amp; D20 &amp; ", " &amp; E20 &amp; ", " &amp; F20 &amp; ", " &amp; G20 &amp; ", " &amp; H20 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('IND EXPOSURE', 0, 1, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
         <v>158</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('BB GUN CMPLNT', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A21 &amp; "', " &amp; C21 &amp; ", " &amp; D21 &amp; ", " &amp; E21 &amp; ", " &amp; F21 &amp; ", " &amp; G21 &amp; ", " &amp; H21 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('OFFICER SHOT', 0, 1, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B22">
+        <v>34</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A22 &amp; "', " &amp; C22 &amp; ", " &amp; D22 &amp; ", " &amp; E22 &amp; ", " &amp; F22 &amp; ", " &amp; G22 &amp; ", " &amp; H22 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('RECK USE OF WEAP', 0, 1, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A23 &amp; "', " &amp; C23 &amp; ", " &amp; D23 &amp; ", " &amp; E23 &amp; ", " &amp; F23 &amp; ", " &amp; G23 &amp; ", " &amp; H23 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('ROBB ST ARM', 0, 1, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>210</v>
+      </c>
+      <c r="B24">
+        <v>36</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A24 &amp; "', " &amp; C24 &amp; ", " &amp; D24 &amp; ", " &amp; E24 &amp; ", " &amp; F24 &amp; ", " &amp; G24 &amp; ", " &amp; H24 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('ROBBERY ARMED', 0, 1, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A25 &amp; "', " &amp; C25 &amp; ", " &amp; D25 &amp; ", " &amp; E25 &amp; ", " &amp; F25 &amp; ", " &amp; G25 &amp; ", " &amp; H25 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('SEX ASST', 0, 1, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>20</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('DEAD ON ENTRY', 0, 1, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20">
-        <v>100</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('FIGHT', 0, 1, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>182</v>
-      </c>
-      <c r="B21">
-        <v>16</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('IND EXPOSURE', 0, 1, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="B26">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A26 &amp; "', " &amp; C26 &amp; ", " &amp; D26 &amp; ", " &amp; E26 &amp; ", " &amp; F26 &amp; ", " &amp; G26 &amp; ", " &amp; H26 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('SHOOTING', 0, 1, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>107</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A27 &amp; "', " &amp; C27 &amp; ", " &amp; D27 &amp; ", " &amp; E27 &amp; ", " &amp; F27 &amp; ", " &amp; G27 &amp; ", " &amp; H27 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('SHOTS FIRED', 0, 1, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>181</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A28 &amp; "', " &amp; C28 &amp; ", " &amp; D28 &amp; ", " &amp; E28 &amp; ", " &amp; F28 &amp; ", " &amp; G28 &amp; ", " &amp; H28 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('SHOTSPOTTER', 0, 1, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
         <v>158</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('OFFICER SHOT', 0, 1, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>205</v>
-      </c>
-      <c r="B23">
-        <v>34</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('RECK USE OF WEAP', 0, 1, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A29 &amp; "', " &amp; C29 &amp; ", " &amp; D29 &amp; ", " &amp; E29 &amp; ", " &amp; F29 &amp; ", " &amp; G29 &amp; ", " &amp; H29 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('SUBJ WANTED', 0, 1, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30">
+        <v>97</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A30 &amp; "', " &amp; C30 &amp; ", " &amp; D30 &amp; ", " &amp; E30 &amp; ", " &amp; F30 &amp; ", " &amp; G30 &amp; ", " &amp; H30 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('SUBJ WITH GUN', 0, 1, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>217</v>
+      </c>
+      <c r="B31">
+        <v>77</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A31 &amp; "', " &amp; C31 &amp; ", " &amp; D31 &amp; ", " &amp; E31 &amp; ", " &amp; F31 &amp; ", " &amp; G31 &amp; ", " &amp; H31 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('SUBJ WITH WEAPON', 0, 1, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32">
+        <v>185</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A32 &amp; "', " &amp; C32 &amp; ", " &amp; D32 &amp; ", " &amp; E32 &amp; ", " &amp; F32 &amp; ", " &amp; G32 &amp; ", " &amp; H32 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('THREAT', 0, 1, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A33 &amp; "', " &amp; C33 &amp; ", " &amp; D33 &amp; ", " &amp; E33 &amp; ", " &amp; F33 &amp; ", " &amp; G33 &amp; ", " &amp; H33 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('THREAT SCHOOL', 0, 1, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34">
+        <v>82</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A34 &amp; "', " &amp; C34 &amp; ", " &amp; D34 &amp; ", " &amp; E34 &amp; ", " &amp; F34 &amp; ", " &amp; G34 &amp; ", " &amp; H34 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('TRBL W/JUV', 0, 1, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35">
+        <v>672</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A35 &amp; "', " &amp; C35 &amp; ", " &amp; D35 &amp; ", " &amp; E35 &amp; ", " &amp; F35 &amp; ", " &amp; G35 &amp; ", " &amp; H35 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('TRBL W/SUBJ', 0, 1, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>227</v>
+      </c>
+      <c r="B36">
+        <v>48</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A36 &amp; "', " &amp; C36 &amp; ", " &amp; D36 &amp; ", " &amp; E36 &amp; ", " &amp; F36 &amp; ", " &amp; G36 &amp; ", " &amp; H36 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('VIOL REST ORDER', 0, 1, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" t="s">
         <v>158</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('ROBB ST ARM', 0, 1, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>210</v>
-      </c>
-      <c r="B25">
-        <v>36</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('ROBBERY ARMED', 0, 1, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" t="s">
-        <v>158</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('SEX ASST', 0, 1, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27">
-        <v>20</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('SHOOTING', 0, 1, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>107</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('SHOTS FIRED', 0, 1, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29">
-        <v>181</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('SHOTSPOTTER', 0, 1, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" t="s">
-        <v>158</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('SUBJ WANTED', 0, 1, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31">
-        <v>97</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('SUBJ WITH GUN', 0, 1, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>217</v>
-      </c>
-      <c r="B32">
-        <v>77</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('SUBJ WITH WEAPON', 0, 1, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>85</v>
-      </c>
-      <c r="B33">
-        <v>185</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('THREAT', 0, 1, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>221</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('THREAT SCHOOL', 0, 1, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35">
-        <v>82</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('TRBL W/JUV', 0, 1, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36">
-        <v>672</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('TRBL W/SUBJ', 0, 1, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>227</v>
-      </c>
-      <c r="B37">
-        <v>48</v>
-      </c>
       <c r="C37">
         <v>0</v>
       </c>
@@ -2208,14 +2319,17 @@
       <c r="G37">
         <v>0</v>
       </c>
-      <c r="H37" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('VIOL REST ORDER', 0, 1, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A37 &amp; "', " &amp; C37 &amp; ", " &amp; D37 &amp; ", " &amp; E37 &amp; ", " &amp; F37 &amp; ", " &amp; G37 &amp; ", " &amp; H37 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('CHILD ABUSE', 0, 1, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="B38" t="s">
         <v>158</v>
@@ -2224,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2235,720 +2349,801 @@
       <c r="G38">
         <v>0</v>
       </c>
-      <c r="H38" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('BURG AUD/SIL', 0, 0, 1, 0, 0)</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A38 &amp; "', " &amp; C38 &amp; ", " &amp; D38 &amp; ", " &amp; E38 &amp; ", " &amp; F38 &amp; ", " &amp; G38 &amp; ", " &amp; H38 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('CHILD NEGLECT', 0, 1, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>206</v>
+      </c>
+      <c r="B39">
+        <v>44</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A39 &amp; "', " &amp; C39 &amp; ", " &amp; D39 &amp; ", " &amp; E39 &amp; ", " &amp; F39 &amp; ", " &amp; G39 &amp; ", " &amp; H39 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('RECKLESS VEHICLE', 0, 1, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>226</v>
+      </c>
+      <c r="B40">
+        <v>14</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A40 &amp; "', " &amp; C40 &amp; ", " &amp; D40 &amp; ", " &amp; E40 &amp; ", " &amp; F40 &amp; ", " &amp; G40 &amp; ", " &amp; H40 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('VEHICLE PURSUIT', 0, 1, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>255</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A41 &amp; "', " &amp; C41 &amp; ", " &amp; D41 &amp; ", " &amp; E41 &amp; ", " &amp; F41 &amp; ", " &amp; G41 &amp; ", " &amp; H41 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('CHILD ENTICEMENT', 0, 1, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A42 &amp; "', " &amp; C42 &amp; ", " &amp; D42 &amp; ", " &amp; E42 &amp; ", " &amp; F42 &amp; ", " &amp; G42 &amp; ", " &amp; H42 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('BURG AUD/SIL', 0, 0, 1, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>165</v>
       </c>
-      <c r="B39">
+      <c r="B43">
         <v>3</v>
       </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('BURG/AUD GOVT', 0, 0, 1, 0, 0)</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A43 &amp; "', " &amp; C43 &amp; ", " &amp; D43 &amp; ", " &amp; E43 &amp; ", " &amp; F43 &amp; ", " &amp; G43 &amp; ", " &amp; H43 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('BURG/AUD GOVT', 0, 0, 1, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>166</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('BURG/AUD RESI', 0, 0, 1, 0, 0)</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A44 &amp; "', " &amp; C44 &amp; ", " &amp; D44 &amp; ", " &amp; E44 &amp; ", " &amp; F44 &amp; ", " &amp; G44 &amp; ", " &amp; H44 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('BURG/AUD RESI', 0, 0, 1, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>11</v>
       </c>
-      <c r="B41">
+      <c r="B45">
         <v>192</v>
       </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('ENTRY', 0, 0, 1, 0, 0)</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A45 &amp; "', " &amp; C45 &amp; ", " &amp; D45 &amp; ", " &amp; E45 &amp; ", " &amp; F45 &amp; ", " &amp; G45 &amp; ", " &amp; H45 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('ENTRY', 0, 0, 1, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>175</v>
       </c>
-      <c r="B42">
+      <c r="B46">
         <v>68</v>
       </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('ENTRY TO AUTO', 0, 0, 1, 0, 0)</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A46 &amp; "', " &amp; C46 &amp; ", " &amp; D46 &amp; ", " &amp; E46 &amp; ", " &amp; F46 &amp; ", " &amp; G46 &amp; ", " &amp; H46 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('ENTRY TO AUTO', 0, 0, 1, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>44</v>
       </c>
-      <c r="B43">
+      <c r="B47">
         <v>35</v>
       </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('FIRE', 0, 0, 1, 0, 0)</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A47 &amp; "', " &amp; C47 &amp; ", " &amp; D47 &amp; ", " &amp; E47 &amp; ", " &amp; F47 &amp; ", " &amp; G47 &amp; ", " &amp; H47 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('FIRE', 0, 0, 1, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>87</v>
       </c>
-      <c r="B44">
+      <c r="B48">
         <v>11</v>
       </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('HOLDUP ALARM', 0, 0, 1, 0, 0)</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A48 &amp; "', " &amp; C48 &amp; ", " &amp; D48 &amp; ", " &amp; E48 &amp; ", " &amp; F48 &amp; ", " &amp; G48 &amp; ", " &amp; H48 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('HOLDUP ALARM', 0, 0, 1, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>203</v>
       </c>
-      <c r="B45">
+      <c r="B49">
         <v>146</v>
       </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('PROPERTY DAMAGE', 0, 0, 1, 0, 0)</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A49 &amp; "', " &amp; C49 &amp; ", " &amp; D49 &amp; ", " &amp; E49 &amp; ", " &amp; F49 &amp; ", " &amp; G49 &amp; ", " &amp; H49 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('PROPERTY DAMAGE', 0, 0, 1, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>209</v>
       </c>
-      <c r="B46">
+      <c r="B50">
         <v>21</v>
       </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('ROBBERY', 0, 0, 1, 0, 0)</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A50 &amp; "', " &amp; C50 &amp; ", " &amp; D50 &amp; ", " &amp; E50 &amp; ", " &amp; F50 &amp; ", " &amp; G50 &amp; ", " &amp; H50 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('ROBBERY', 0, 0, 1, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>38</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B51" t="s">
         <v>158</v>
       </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('STOLEN VEH', 0, 0, 1, 0, 0)</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A51 &amp; "', " &amp; C51 &amp; ", " &amp; D51 &amp; ", " &amp; E51 &amp; ", " &amp; F51 &amp; ", " &amp; G51 &amp; ", " &amp; H51 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('STOLEN VEH', 0, 0, 1, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>215</v>
       </c>
-      <c r="B48">
+      <c r="B52">
         <v>36</v>
       </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('STOLEN VEHICLE', 0, 0, 1, 0, 0)</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A52 &amp; "', " &amp; C52 &amp; ", " &amp; D52 &amp; ", " &amp; E52 &amp; ", " &amp; F52 &amp; ", " &amp; G52 &amp; ", " &amp; H52 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('STOLEN VEHICLE', 0, 0, 1, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>65</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B53" t="s">
         <v>158</v>
       </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('SUSP PACKAGE/DEVICE', 0, 0, 1, 0, 0)</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A53 &amp; "', " &amp; C53 &amp; ", " &amp; D53 &amp; ", " &amp; E53 &amp; ", " &amp; F53 &amp; ", " &amp; G53 &amp; ", " &amp; H53 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('SUSP PACKAGE/DEVICE', 0, 0, 1, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>69</v>
       </c>
-      <c r="B50">
+      <c r="B54">
         <v>215</v>
       </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('SUSP PERS/AUTO', 0, 0, 1, 0, 0)</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A54 &amp; "', " &amp; C54 &amp; ", " &amp; D54 &amp; ", " &amp; E54 &amp; ", " &amp; F54 &amp; ", " &amp; G54 &amp; ", " &amp; H54 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('SUSP PERS/AUTO', 0, 0, 1, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>77</v>
       </c>
-      <c r="B51">
+      <c r="B55">
         <v>214</v>
       </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('THEFT', 0, 0, 1, 0, 0)</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A55 &amp; "', " &amp; C55 &amp; ", " &amp; D55 &amp; ", " &amp; E55 &amp; ", " &amp; F55 &amp; ", " &amp; G55 &amp; ", " &amp; H55 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('THEFT', 0, 0, 1, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>220</v>
       </c>
-      <c r="B52">
+      <c r="B56">
         <v>17</v>
       </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('THEFT FROM PERSN', 0, 0, 1, 0, 0)</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A56 &amp; "', " &amp; C56 &amp; ", " &amp; D56 &amp; ", " &amp; E56 &amp; ", " &amp; F56 &amp; ", " &amp; G56 &amp; ", " &amp; H56 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('THEFT FROM PERSN', 0, 0, 1, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>81</v>
       </c>
-      <c r="B53">
+      <c r="B57">
         <v>16</v>
       </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('THEFT VEHICLE', 0, 0, 1, 0, 0)</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A57 &amp; "', " &amp; C57 &amp; ", " &amp; D57 &amp; ", " &amp; E57 &amp; ", " &amp; F57 &amp; ", " &amp; G57 &amp; ", " &amp; H57 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('THEFT VEHICLE', 0, 0, 1, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>97</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B58" t="s">
         <v>158</v>
       </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('TRESPASSER', 0, 0, 1, 0, 0)</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A58 &amp; "', " &amp; C58 &amp; ", " &amp; D58 &amp; ", " &amp; E58 &amp; ", " &amp; F58 &amp; ", " &amp; G58 &amp; ", " &amp; H58 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('TRESPASSER', 0, 0, 1, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>254</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A59 &amp; "', " &amp; C59 &amp; ", " &amp; D59 &amp; ", " &amp; E59 &amp; ", " &amp; F59 &amp; ", " &amp; G59 &amp; ", " &amp; H59 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('BURG/AUD BUSINES', 0, 0, 1, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>7</v>
       </c>
-      <c r="B55">
+      <c r="B60">
         <v>30</v>
       </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('DRUG DEALING', 0, 0, 0, 1, 0)</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A60 &amp; "', " &amp; C60 &amp; ", " &amp; D60 &amp; ", " &amp; E60 &amp; ", " &amp; F60 &amp; ", " &amp; G60 &amp; ", " &amp; H60 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('DRUG DEALING', 0, 0, 0, 1, 0, 0)</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>174</v>
       </c>
-      <c r="B56">
+      <c r="B61">
         <v>16</v>
       </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('DUI', 0, 0, 0, 1, 0)</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A61 &amp; "', " &amp; C61 &amp; ", " &amp; D61 &amp; ", " &amp; E61 &amp; ", " &amp; F61 &amp; ", " &amp; G61 &amp; ", " &amp; H61 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('DUI', 0, 0, 0, 1, 0, 0)</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>29</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B62" t="s">
         <v>158</v>
       </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('METH LAB', 0, 0, 0, 1, 0)</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A62 &amp; "', " &amp; C62 &amp; ", " &amp; D62 &amp; ", " &amp; E62 &amp; ", " &amp; F62 &amp; ", " &amp; G62 &amp; ", " &amp; H62 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('METH LAB', 0, 0, 0, 1, 0, 0)</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>194</v>
       </c>
-      <c r="B58">
+      <c r="B63">
         <v>27</v>
       </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('OVERDOSE', 0, 0, 0, 1, 0)</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>157</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('911 ABUSE', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>159</v>
-      </c>
-      <c r="B60">
-        <v>8</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('ABAND/PROP WEAPO', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>160</v>
-      </c>
-      <c r="B61">
-        <v>46</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('ABAND/STOLEN PRO', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A63 &amp; "', " &amp; C63 &amp; ", " &amp; D63 &amp; ", " &amp; E63 &amp; ", " &amp; F63 &amp; ", " &amp; G63 &amp; ", " &amp; H63 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('OVERDOSE', 0, 0, 0, 1, 0, 0)</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>17</v>
       </c>
-      <c r="B62">
+      <c r="B64">
         <v>292</v>
       </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('ACC PDO', 0, 0, 0, 0, 1)</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>138</v>
-      </c>
-      <c r="B63" t="s">
-        <v>158</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('ACC PDO HWY', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A64 &amp; "', " &amp; C64 &amp; ", " &amp; D64 &amp; ", " &amp; E64 &amp; ", " &amp; F64 &amp; ", " &amp; G64 &amp; ", " &amp; H64 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('ACC PDO', 0, 0, 0, 0, 1, 0)</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>10</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>124</v>
       </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="H64" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('ACC PI', 0, 0, 0, 0, 1)</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>139</v>
-      </c>
-      <c r="B65" t="s">
-        <v>158</v>
-      </c>
       <c r="C65">
         <v>0</v>
       </c>
@@ -2962,14 +3157,17 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('ACC PI HWY', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A65 &amp; "', " &amp; C65 &amp; ", " &amp; D65 &amp; ", " &amp; E65 &amp; ", " &amp; F65 &amp; ", " &amp; G65 &amp; ", " &amp; H65 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('ACC PI', 0, 0, 0, 0, 1, 0)</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>24</v>
       </c>
@@ -2991,233 +3189,260 @@
       <c r="G66">
         <v>1</v>
       </c>
-      <c r="H66" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('ACC UNKN INJ', 0, 0, 0, 0, 1)</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A66 &amp; "', " &amp; C66 &amp; ", " &amp; D66 &amp; ", " &amp; E66 &amp; ", " &amp; F66 &amp; ", " &amp; G66 &amp; ", " &amp; H66 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('ACC UNKN INJ', 0, 0, 0, 0, 1, 0)</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>222</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A67 &amp; "', " &amp; C67 &amp; ", " &amp; D67 &amp; ", " &amp; E67 &amp; ", " &amp; F67 &amp; ", " &amp; G67 &amp; ", " &amp; H67 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('TRAFFIC CONTROL', 0, 0, 0, 0, 1, 0)</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68">
+        <v>116</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A68 &amp; "', " &amp; C68 &amp; ", " &amp; D68 &amp; ", " &amp; E68 &amp; ", " &amp; F68 &amp; ", " &amp; G68 &amp; ", " &amp; H68 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('TRAFFIC HAZARD', 0, 0, 0, 0, 1, 0)</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>223</v>
+      </c>
+      <c r="B69">
+        <v>17</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A69 &amp; "', " &amp; C69 &amp; ", " &amp; D69 &amp; ", " &amp; E69 &amp; ", " &amp; F69 &amp; ", " &amp; G69 &amp; ", " &amp; H69 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('TRAFFIC LASER', 0, 0, 0, 0, 1, 0)</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>224</v>
+      </c>
+      <c r="B70">
+        <v>1027</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A70 &amp; "', " &amp; C70 &amp; ", " &amp; D70 &amp; ", " &amp; E70 &amp; ", " &amp; F70 &amp; ", " &amp; G70 &amp; ", " &amp; H70 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('TRAFFIC STOP', 0, 0, 0, 0, 1, 0)</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" t="s">
+        <v>158</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A71 &amp; "', " &amp; C71 &amp; ", " &amp; D71 &amp; ", " &amp; E71 &amp; ", " &amp; F71 &amp; ", " &amp; G71 &amp; ", " &amp; H71 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('ACC PDO HWY', 0, 0, 0, 0, 1, 0)</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" t="s">
+        <v>158</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A72 &amp; "', " &amp; C72 &amp; ", " &amp; D72 &amp; ", " &amp; E72 &amp; ", " &amp; F72 &amp; ", " &amp; G72 &amp; ", " &amp; H72 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('ACC PI HWY', 0, 0, 0, 0, 1, 0)</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>140</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B73" t="s">
         <v>158</v>
       </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67" t="str">
-        <f t="shared" ref="H67:H130" si="1">"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('" &amp; A67 &amp; "', " &amp; C67 &amp; ", " &amp; D67 &amp; ", " &amp; E67 &amp; ", " &amp; F67 &amp; ", " &amp; G67 &amp; ")"</f>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('ACC UNKN INJ HWY', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>31</v>
-      </c>
-      <c r="B68">
-        <v>24</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('ADDL INFO', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A73 &amp; "', " &amp; C73 &amp; ", " &amp; D73 &amp; ", " &amp; E73 &amp; ", " &amp; F73 &amp; ", " &amp; G73 &amp; ", " &amp; H73 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('ACC UNKN INJ HWY', 0, 0, 0, 0, 1, 0)</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>39</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B74" t="s">
         <v>158</v>
       </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('ALARM ON BUS', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A74 &amp; "', " &amp; C74 &amp; ", " &amp; D74 &amp; ", " &amp; E74 &amp; ", " &amp; F74 &amp; ", " &amp; G74 &amp; ", " &amp; H74 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('ALARM ON BUS', 0, 0, 0, 0, 0, 1)</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>161</v>
       </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('ALTERED CURRENCY', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>47</v>
-      </c>
-      <c r="B71">
-        <v>8</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('ANIMAL BITE', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>162</v>
-      </c>
-      <c r="B72">
-        <v>316</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('ASSIGN-ADMN MPD', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>51</v>
-      </c>
-      <c r="B73">
-        <v>172</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('ASSIGNMENT', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>163</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('ASSIST OFFICER', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>58</v>
-      </c>
-      <c r="B75" t="s">
-        <v>158</v>
+      <c r="B75">
+        <v>1</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -3234,17 +3459,20 @@
       <c r="G75">
         <v>0</v>
       </c>
-      <c r="H75" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('ASST FIRE/AMB', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A75 &amp; "', " &amp; C75 &amp; ", " &amp; D75 &amp; ", " &amp; E75 &amp; ", " &amp; F75 &amp; ", " &amp; G75 &amp; ", " &amp; H75 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('ALTERED CURRENCY', 0, 0, 0, 0, 0, 1)</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -3261,17 +3489,20 @@
       <c r="G76">
         <v>0</v>
       </c>
-      <c r="H76" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('BOAT STOP', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A76 &amp; "', " &amp; C76 &amp; ", " &amp; D76 &amp; ", " &amp; E76 &amp; ", " &amp; F76 &amp; ", " &amp; G76 &amp; ", " &amp; H76 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('BUS INVESTIGATIO', 0, 0, 0, 0, 0, 1)</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="B77">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -3288,17 +3519,20 @@
       <c r="G77">
         <v>0</v>
       </c>
-      <c r="H77" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('BUS INVESTIGATIO', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A77 &amp; "', " &amp; C77 &amp; ", " &amp; D77 &amp; ", " &amp; E77 &amp; ", " &amp; F77 &amp; ", " &amp; G77 &amp; ", " &amp; H77 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('CRUELTY ANIMAL', 0, 0, 0, 0, 0, 1)</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>168</v>
+        <v>36</v>
       </c>
       <c r="B78">
-        <v>1053</v>
+        <v>112</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -3315,14 +3549,17 @@
       <c r="G78">
         <v>0</v>
       </c>
-      <c r="H78" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('BUSINESS CHECK', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A78 &amp; "', " &amp; C78 &amp; ", " &amp; D78 &amp; ", " &amp; E78 &amp; ", " &amp; F78 &amp; ", " &amp; G78 &amp; ", " &amp; H78 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('FAMILY TROUBLE', 0, 0, 0, 0, 0, 1)</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="B79" t="s">
         <v>158</v>
@@ -3342,17 +3579,20 @@
       <c r="G79">
         <v>0</v>
       </c>
-      <c r="H79" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('CALL BY (10-21)', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A79 &amp; "', " &amp; C79 &amp; ", " &amp; D79 &amp; ", " &amp; E79 &amp; ", " &amp; F79 &amp; ", " &amp; G79 &amp; ", " &amp; H79 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('FORGERY', 0, 0, 0, 0, 0, 1)</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B80">
-        <v>230</v>
+        <v>5</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3369,14 +3609,17 @@
       <c r="G80">
         <v>0</v>
       </c>
-      <c r="H80" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('CALL FOR POLICE', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A80 &amp; "', " &amp; C80 &amp; ", " &amp; D80 &amp; ", " &amp; E80 &amp; ", " &amp; F80 &amp; ", " &amp; G80 &amp; ", " &amp; H80 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('FRAUD', 0, 0, 0, 0, 0, 1)</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="B81" t="s">
         <v>158</v>
@@ -3396,17 +3639,20 @@
       <c r="G81">
         <v>0</v>
       </c>
-      <c r="H81" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('CAR CHANGE', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A81 &amp; "', " &amp; C81 &amp; ", " &amp; D81 &amp; ", " &amp; E81 &amp; ", " &amp; F81 &amp; ", " &amp; G81 &amp; ", " &amp; H81 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('GANG', 0, 0, 0, 0, 0, 1)</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>98</v>
-      </c>
-      <c r="B82" t="s">
-        <v>158</v>
+        <v>79</v>
+      </c>
+      <c r="B82">
+        <v>5</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -3423,23 +3669,26 @@
       <c r="G82">
         <v>0</v>
       </c>
-      <c r="H82" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('CAR CHECK', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A82 &amp; "', " &amp; C82 &amp; ", " &amp; D82 &amp; ", " &amp; E82 &amp; ", " &amp; F82 &amp; ", " &amp; G82 &amp; ", " &amp; H82 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('GRAFFITI', 0, 0, 0, 0, 0, 1)</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>102</v>
-      </c>
-      <c r="B83" t="s">
-        <v>158</v>
+        <v>183</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3450,17 +3699,20 @@
       <c r="G83">
         <v>0</v>
       </c>
-      <c r="H83" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('CHILD ABUSE', 0, 1, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A83 &amp; "', " &amp; C83 &amp; ", " &amp; D83 &amp; ", " &amp; E83 &amp; ", " &amp; F83 &amp; ", " &amp; G83 &amp; ", " &amp; H83 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('INTERNET CRIMES', 0, 0, 0, 0, 0, 1)</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="B84">
-        <v>39</v>
+        <v>276</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -3477,23 +3729,26 @@
       <c r="G84">
         <v>0</v>
       </c>
-      <c r="H84" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('CHILD CUSTODY', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A84 &amp; "', " &amp; C84 &amp; ", " &amp; D84 &amp; ", " &amp; E84 &amp; ", " &amp; F84 &amp; ", " &amp; G84 &amp; ", " &amp; H84 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('INVESTIGATION', 0, 0, 0, 0, 0, 1)</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>110</v>
-      </c>
-      <c r="B85" t="s">
-        <v>158</v>
+        <v>190</v>
+      </c>
+      <c r="B85">
+        <v>17</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3504,17 +3759,20 @@
       <c r="G85">
         <v>0</v>
       </c>
-      <c r="H85" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('CHILD NEGLECT', 0, 1, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A85 &amp; "', " &amp; C85 &amp; ", " &amp; D85 &amp; ", " &amp; E85 &amp; ", " &amp; F85 &amp; ", " &amp; G85 &amp; ", " &amp; H85 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('NETWORK CRIMINAL', 0, 0, 0, 0, 0, 1)</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="B86">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -3531,14 +3789,17 @@
       <c r="G86">
         <v>0</v>
       </c>
-      <c r="H86" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('CITIZEN CONTACT', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A86 &amp; "', " &amp; C86 &amp; ", " &amp; D86 &amp; ", " &amp; E86 &amp; ", " &amp; F86 &amp; ", " &amp; G86 &amp; ", " &amp; H86 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('SHOPLIFTER', 0, 0, 0, 0, 0, 1)</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="B87">
         <v>10</v>
@@ -3558,17 +3819,20 @@
       <c r="G87">
         <v>0</v>
       </c>
-      <c r="H87" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('CITIZEN CONVEY', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A87 &amp; "', " &amp; C87 &amp; ", " &amp; D87 &amp; ", " &amp; E87 &amp; ", " &amp; F87 &amp; ", " &amp; G87 &amp; ", " &amp; H87 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('SOLICITING', 0, 0, 0, 0, 0, 1)</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
       <c r="B88">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -3585,17 +3849,20 @@
       <c r="G88">
         <v>0</v>
       </c>
-      <c r="H88" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('COMMUNITY MTNG', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A88 &amp; "', " &amp; C88 &amp; ", " &amp; D88 &amp; ", " &amp; E88 &amp; ", " &amp; F88 &amp; ", " &amp; G88 &amp; ", " &amp; H88 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('911 ABUSE CONFIR', 0, 0, 0, 0, 0, 1)</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>119</v>
-      </c>
-      <c r="B89" t="s">
-        <v>158</v>
+        <v>257</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -3612,14 +3879,17 @@
       <c r="G89">
         <v>0</v>
       </c>
-      <c r="H89" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('CONT DEL MINOR', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A89 &amp; "', " &amp; C89 &amp; ", " &amp; D89 &amp; ", " &amp; E89 &amp; ", " &amp; F89 &amp; ", " &amp; G89 &amp; ", " &amp; H89 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('SUSP PKG/DEVICE', 0, 0, 0, 0, 0, 1)</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="B90" t="s">
         <v>158</v>
@@ -3639,17 +3909,20 @@
       <c r="G90">
         <v>0</v>
       </c>
-      <c r="H90" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('CONVEY PROP', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A90 &amp; "', " &amp; C90 &amp; ", " &amp; D90 &amp; ", " &amp; E90 &amp; ", " &amp; F90 &amp; ", " &amp; G90 &amp; ", " &amp; H90 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('BB GUN CMPLNT', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B91">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -3666,153 +3939,171 @@
       <c r="G91">
         <v>0</v>
       </c>
-      <c r="H91" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('CONVEY PROPERTY', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A91 &amp; "', " &amp; C91 &amp; ", " &amp; D91 &amp; ", " &amp; E91 &amp; ", " &amp; F91 &amp; ", " &amp; G91 &amp; ", " &amp; H91 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('911 ABUSE', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>159</v>
+      </c>
+      <c r="B92">
+        <v>8</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A92 &amp; "', " &amp; C92 &amp; ", " &amp; D92 &amp; ", " &amp; E92 &amp; ", " &amp; F92 &amp; ", " &amp; G92 &amp; ", " &amp; H92 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('ABAND/PROP WEAPO', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>160</v>
+      </c>
+      <c r="B93">
+        <v>46</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A93 &amp; "', " &amp; C93 &amp; ", " &amp; D93 &amp; ", " &amp; E93 &amp; ", " &amp; F93 &amp; ", " &amp; G93 &amp; ", " &amp; H93 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('ABAND/STOLEN PRO', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>31</v>
+      </c>
+      <c r="B94">
+        <v>24</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A94 &amp; "', " &amp; C94 &amp; ", " &amp; D94 &amp; ", " &amp; E94 &amp; ", " &amp; F94 &amp; ", " &amp; G94 &amp; ", " &amp; H94 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('ADDL INFO', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>47</v>
+      </c>
+      <c r="B95">
+        <v>8</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A95 &amp; "', " &amp; C95 &amp; ", " &amp; D95 &amp; ", " &amp; E95 &amp; ", " &amp; F95 &amp; ", " &amp; G95 &amp; ", " &amp; H95 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('ANIMAL BITE', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>162</v>
+      </c>
+      <c r="B96">
+        <v>316</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A96 &amp; "', " &amp; C96 &amp; ", " &amp; D96 &amp; ", " &amp; E96 &amp; ", " &amp; F96 &amp; ", " &amp; G96 &amp; ", " &amp; H96 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('ASSIGN-ADMN MPD', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>51</v>
+      </c>
+      <c r="B97">
         <v>172</v>
       </c>
-      <c r="B92">
-        <v>57</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('COURT DUTY', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>127</v>
-      </c>
-      <c r="B93">
-        <v>23</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('CRUELTY ANIMAL', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>18</v>
-      </c>
-      <c r="B94">
-        <v>3</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('ESCORT', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>21</v>
-      </c>
-      <c r="B95" t="s">
-        <v>158</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('ESP TARGET ESCORT', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>32</v>
-      </c>
-      <c r="B96" t="s">
-        <v>158</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('FALSE FIRE ALARM', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>36</v>
-      </c>
-      <c r="B97">
-        <v>112</v>
-      </c>
       <c r="C97">
         <v>0</v>
       </c>
@@ -3828,17 +4119,20 @@
       <c r="G97">
         <v>0</v>
       </c>
-      <c r="H97" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('FAMILY TROUBLE', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A97 &amp; "', " &amp; C97 &amp; ", " &amp; D97 &amp; ", " &amp; E97 &amp; ", " &amp; F97 &amp; ", " &amp; G97 &amp; ", " &amp; H97 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('ASSIGNMENT', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="B98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -3855,14 +4149,17 @@
       <c r="G98">
         <v>0</v>
       </c>
-      <c r="H98" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('FIREWORKS', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A98 &amp; "', " &amp; C98 &amp; ", " &amp; D98 &amp; ", " &amp; E98 &amp; ", " &amp; F98 &amp; ", " &amp; G98 &amp; ", " &amp; H98 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('ASSIST OFFICER', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="B99" t="s">
         <v>158</v>
@@ -3882,17 +4179,20 @@
       <c r="G99">
         <v>0</v>
       </c>
-      <c r="H99" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('FLOODING', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A99 &amp; "', " &amp; C99 &amp; ", " &amp; D99 &amp; ", " &amp; E99 &amp; ", " &amp; F99 &amp; ", " &amp; G99 &amp; ", " &amp; H99 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('ASST FIRE/AMB', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B100">
-        <v>422</v>
+        <v>1</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -3909,17 +4209,20 @@
       <c r="G100">
         <v>0</v>
       </c>
-      <c r="H100" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('FOLLOW UP', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A100 &amp; "', " &amp; C100 &amp; ", " &amp; D100 &amp; ", " &amp; E100 &amp; ", " &amp; F100 &amp; ", " &amp; G100 &amp; ", " &amp; H100 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('BOAT STOP', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>1053</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -3936,14 +4239,17 @@
       <c r="G101">
         <v>0</v>
       </c>
-      <c r="H101" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('FOOT PURSUIT', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A101 &amp; "', " &amp; C101 &amp; ", " &amp; D101 &amp; ", " &amp; E101 &amp; ", " &amp; F101 &amp; ", " &amp; G101 &amp; ", " &amp; H101 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('BUSINESS CHECK', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="B102" t="s">
         <v>158</v>
@@ -3963,17 +4269,20 @@
       <c r="G102">
         <v>0</v>
       </c>
-      <c r="H102" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('FORGERY', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A102 &amp; "', " &amp; C102 &amp; ", " &amp; D102 &amp; ", " &amp; E102 &amp; ", " &amp; F102 &amp; ", " &amp; G102 &amp; ", " &amp; H102 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('CALL BY (10-21)', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B103">
-        <v>5</v>
+        <v>230</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -3990,14 +4299,17 @@
       <c r="G103">
         <v>0</v>
       </c>
-      <c r="H103" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('FRAUD', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A103 &amp; "', " &amp; C103 &amp; ", " &amp; D103 &amp; ", " &amp; E103 &amp; ", " &amp; F103 &amp; ", " &amp; G103 &amp; ", " &amp; H103 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('CALL FOR POLICE', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="B104" t="s">
         <v>158</v>
@@ -4017,261 +4329,291 @@
       <c r="G104">
         <v>0</v>
       </c>
-      <c r="H104" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('FRAUD CREDIT CARD', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A104 &amp; "', " &amp; C104 &amp; ", " &amp; D104 &amp; ", " &amp; E104 &amp; ", " &amp; F104 &amp; ", " &amp; G104 &amp; ", " &amp; H104 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('CAR CHANGE', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>67</v>
-      </c>
-      <c r="B105">
+        <v>98</v>
+      </c>
+      <c r="B105" t="s">
+        <v>158</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A105 &amp; "', " &amp; C105 &amp; ", " &amp; D105 &amp; ", " &amp; E105 &amp; ", " &amp; F105 &amp; ", " &amp; G105 &amp; ", " &amp; H105 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('CAR CHECK', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106">
+        <v>39</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A106 &amp; "', " &amp; C106 &amp; ", " &amp; D106 &amp; ", " &amp; E106 &amp; ", " &amp; F106 &amp; ", " &amp; G106 &amp; ", " &amp; H106 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('CHILD CUSTODY', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>169</v>
+      </c>
+      <c r="B107">
+        <v>16</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A107 &amp; "', " &amp; C107 &amp; ", " &amp; D107 &amp; ", " &amp; E107 &amp; ", " &amp; F107 &amp; ", " &amp; G107 &amp; ", " &amp; H107 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('CITIZEN CONTACT', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108">
+        <v>10</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A108 &amp; "', " &amp; C108 &amp; ", " &amp; D108 &amp; ", " &amp; E108 &amp; ", " &amp; F108 &amp; ", " &amp; G108 &amp; ", " &amp; H108 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('CITIZEN CONVEY', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>170</v>
+      </c>
+      <c r="B109">
+        <v>25</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A109 &amp; "', " &amp; C109 &amp; ", " &amp; D109 &amp; ", " &amp; E109 &amp; ", " &amp; F109 &amp; ", " &amp; G109 &amp; ", " &amp; H109 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('COMMUNITY MTNG', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>119</v>
+      </c>
+      <c r="B110" t="s">
+        <v>158</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A110 &amp; "', " &amp; C110 &amp; ", " &amp; D110 &amp; ", " &amp; E110 &amp; ", " &amp; F110 &amp; ", " &amp; G110 &amp; ", " &amp; H110 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('CONT DEL MINOR', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>123</v>
+      </c>
+      <c r="B111" t="s">
+        <v>158</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A111 &amp; "', " &amp; C111 &amp; ", " &amp; D111 &amp; ", " &amp; E111 &amp; ", " &amp; F111 &amp; ", " &amp; G111 &amp; ", " &amp; H111 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('CONVEY PROP', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>171</v>
+      </c>
+      <c r="B112">
+        <v>36</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A112 &amp; "', " &amp; C112 &amp; ", " &amp; D112 &amp; ", " &amp; E112 &amp; ", " &amp; F112 &amp; ", " &amp; G112 &amp; ", " &amp; H112 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('CONVEY PROPERTY', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>172</v>
+      </c>
+      <c r="B113">
+        <v>57</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A113 &amp; "', " &amp; C113 &amp; ", " &amp; D113 &amp; ", " &amp; E113 &amp; ", " &amp; F113 &amp; ", " &amp; G113 &amp; ", " &amp; H113 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('COURT DUTY', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>18</v>
+      </c>
+      <c r="B114">
         <v>3</v>
       </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105">
-        <v>0</v>
-      </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
-      <c r="H105" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('GAMBLING', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>71</v>
-      </c>
-      <c r="B106" t="s">
-        <v>158</v>
-      </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-      <c r="H106" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('GANG', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>178</v>
-      </c>
-      <c r="B107">
-        <v>8</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="H107" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('GPS MONITORING', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>79</v>
-      </c>
-      <c r="B108">
-        <v>5</v>
-      </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-      <c r="H108" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('GRAFFITI', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>179</v>
-      </c>
-      <c r="B109">
-        <v>8</v>
-      </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
-      <c r="H109" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('HOME VISIT DV', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>180</v>
-      </c>
-      <c r="B110">
-        <v>9</v>
-      </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="H110" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('HOSPITAL GUARD', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>181</v>
-      </c>
-      <c r="B111">
-        <v>2</v>
-      </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-      <c r="H111" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('HOSPITAL TO MCMH', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>99</v>
-      </c>
-      <c r="B112">
-        <v>207</v>
-      </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('INJ PERSON/SICK', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>183</v>
-      </c>
-      <c r="B113">
-        <v>2</v>
-      </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-      <c r="H113" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('INTERNET CRIMES', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>184</v>
-      </c>
-      <c r="B114">
-        <v>276</v>
-      </c>
       <c r="C114">
         <v>0</v>
       </c>
@@ -4287,14 +4629,17 @@
       <c r="G114">
         <v>0</v>
       </c>
-      <c r="H114" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('INVESTIGATION', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A114 &amp; "', " &amp; C114 &amp; ", " &amp; D114 &amp; ", " &amp; E114 &amp; ", " &amp; F114 &amp; ", " &amp; G114 &amp; ", " &amp; H114 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('ESCORT', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="B115" t="s">
         <v>158</v>
@@ -4314,17 +4659,20 @@
       <c r="G115">
         <v>0</v>
       </c>
-      <c r="H115" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('ISS WORTH CHECK', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A115 &amp; "', " &amp; C115 &amp; ", " &amp; D115 &amp; ", " &amp; E115 &amp; ", " &amp; F115 &amp; ", " &amp; G115 &amp; ", " &amp; H115 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('ESP TARGET ESCORT', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>107</v>
-      </c>
-      <c r="B116">
-        <v>2</v>
+        <v>32</v>
+      </c>
+      <c r="B116" t="s">
+        <v>158</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -4341,17 +4689,20 @@
       <c r="G116">
         <v>0</v>
       </c>
-      <c r="H116" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('JUV CONVEY', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A116 &amp; "', " &amp; C116 &amp; ", " &amp; D116 &amp; ", " &amp; E116 &amp; ", " &amp; F116 &amp; ", " &amp; G116 &amp; ", " &amp; H116 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('FALSE FIRE ALARM', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>185</v>
+        <v>48</v>
       </c>
       <c r="B117">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -4368,17 +4719,20 @@
       <c r="G117">
         <v>0</v>
       </c>
-      <c r="H117" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('LANDLORD/TEN TRB', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A117 &amp; "', " &amp; C117 &amp; ", " &amp; D117 &amp; ", " &amp; E117 &amp; ", " &amp; F117 &amp; ", " &amp; G117 &amp; ", " &amp; H117 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('FIREWORKS', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>120</v>
-      </c>
-      <c r="B118">
-        <v>3</v>
+        <v>145</v>
+      </c>
+      <c r="B118" t="s">
+        <v>158</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -4395,17 +4749,20 @@
       <c r="G118">
         <v>0</v>
       </c>
-      <c r="H118" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('LOCKOUT', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A118 &amp; "', " &amp; C118 &amp; ", " &amp; D118 &amp; ", " &amp; E118 &amp; ", " &amp; F118 &amp; ", " &amp; G118 &amp; ", " &amp; H118 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('FLOODING', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>116</v>
-      </c>
-      <c r="B119" t="s">
-        <v>158</v>
+        <v>176</v>
+      </c>
+      <c r="B119">
+        <v>422</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -4422,17 +4779,20 @@
       <c r="G119">
         <v>0</v>
       </c>
-      <c r="H119" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('LOITERING', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A119 &amp; "', " &amp; C119 &amp; ", " &amp; D119 &amp; ", " &amp; E119 &amp; ", " &amp; F119 &amp; ", " &amp; G119 &amp; ", " &amp; H119 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('FOLLOW UP', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="B120">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -4449,14 +4809,17 @@
       <c r="G120">
         <v>0</v>
       </c>
-      <c r="H120" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('LOOSE ANIMAL', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A120 &amp; "', " &amp; C120 &amp; ", " &amp; D120 &amp; ", " &amp; E120 &amp; ", " &amp; F120 &amp; ", " &amp; G120 &amp; ", " &amp; H120 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('FOOT PURSUIT', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="B121" t="s">
         <v>158</v>
@@ -4476,180 +4839,201 @@
       <c r="G121">
         <v>0</v>
       </c>
-      <c r="H121" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('LOUD MUSIC – BUS', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A121 &amp; "', " &amp; C121 &amp; ", " &amp; D121 &amp; ", " &amp; E121 &amp; ", " &amp; F121 &amp; ", " &amp; G121 &amp; ", " &amp; H121 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('FRAUD CREDIT CARD', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>12</v>
-      </c>
-      <c r="B122" t="s">
+        <v>67</v>
+      </c>
+      <c r="B122">
+        <v>3</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A122 &amp; "', " &amp; C122 &amp; ", " &amp; D122 &amp; ", " &amp; E122 &amp; ", " &amp; F122 &amp; ", " &amp; G122 &amp; ", " &amp; H122 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('GAMBLING', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>178</v>
+      </c>
+      <c r="B123">
+        <v>8</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A123 &amp; "', " &amp; C123 &amp; ", " &amp; D123 &amp; ", " &amp; E123 &amp; ", " &amp; F123 &amp; ", " &amp; G123 &amp; ", " &amp; H123 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('GPS MONITORING', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>179</v>
+      </c>
+      <c r="B124">
+        <v>8</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A124 &amp; "', " &amp; C124 &amp; ", " &amp; D124 &amp; ", " &amp; E124 &amp; ", " &amp; F124 &amp; ", " &amp; G124 &amp; ", " &amp; H124 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('HOME VISIT DV', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>180</v>
+      </c>
+      <c r="B125">
+        <v>9</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A125 &amp; "', " &amp; C125 &amp; ", " &amp; D125 &amp; ", " &amp; E125 &amp; ", " &amp; F125 &amp; ", " &amp; G125 &amp; ", " &amp; H125 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('HOSPITAL GUARD', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>181</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A126 &amp; "', " &amp; C126 &amp; ", " &amp; D126 &amp; ", " &amp; E126 &amp; ", " &amp; F126 &amp; ", " &amp; G126 &amp; ", " &amp; H126 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('HOSPITAL TO MCMH', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>99</v>
+      </c>
+      <c r="B127">
+        <v>207</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A127 &amp; "', " &amp; C127 &amp; ", " &amp; D127 &amp; ", " &amp; E127 &amp; ", " &amp; F127 &amp; ", " &amp; G127 &amp; ", " &amp; H127 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('INJ PERSON/SICK', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>103</v>
+      </c>
+      <c r="B128" t="s">
         <v>158</v>
       </c>
-      <c r="C122">
-        <v>0</v>
-      </c>
-      <c r="D122">
-        <v>0</v>
-      </c>
-      <c r="E122">
-        <v>0</v>
-      </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
-      <c r="H122" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('LOUD MUSIC – OTHER', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>3</v>
-      </c>
-      <c r="B123" t="s">
-        <v>158</v>
-      </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-      <c r="H123" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('LOUD MUSIC – RES', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>8</v>
-      </c>
-      <c r="B124" t="s">
-        <v>158</v>
-      </c>
-      <c r="C124">
-        <v>0</v>
-      </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
-      <c r="E124">
-        <v>0</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-      <c r="H124" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('LOUD MUSIC – VEH', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>15</v>
-      </c>
-      <c r="B125" t="s">
-        <v>158</v>
-      </c>
-      <c r="C125">
-        <v>0</v>
-      </c>
-      <c r="D125">
-        <v>0</v>
-      </c>
-      <c r="E125">
-        <v>0</v>
-      </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-      <c r="H125" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('MAIL-RUN', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>19</v>
-      </c>
-      <c r="B126" t="s">
-        <v>158</v>
-      </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
-      <c r="D126">
-        <v>0</v>
-      </c>
-      <c r="E126">
-        <v>0</v>
-      </c>
-      <c r="F126">
-        <v>0</v>
-      </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="H126" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('MARINE VIOL', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>186</v>
-      </c>
-      <c r="B127">
-        <v>29</v>
-      </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-      <c r="D127">
-        <v>0</v>
-      </c>
-      <c r="E127">
-        <v>0</v>
-      </c>
-      <c r="F127">
-        <v>0</v>
-      </c>
-      <c r="G127">
-        <v>0</v>
-      </c>
-      <c r="H127" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('MED RUN', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>187</v>
-      </c>
-      <c r="B128">
-        <v>33</v>
-      </c>
       <c r="C128">
         <v>0</v>
       </c>
@@ -4665,17 +5049,20 @@
       <c r="G128">
         <v>0</v>
       </c>
-      <c r="H128" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('MEET GOVT AGENCY', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A128 &amp; "', " &amp; C128 &amp; ", " &amp; D128 &amp; ", " &amp; E128 &amp; ", " &amp; F128 &amp; ", " &amp; G128 &amp; ", " &amp; H128 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('ISS WORTH CHECK', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>26</v>
-      </c>
-      <c r="B129" t="s">
-        <v>158</v>
+        <v>107</v>
+      </c>
+      <c r="B129">
+        <v>2</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -4692,17 +5079,20 @@
       <c r="G129">
         <v>0</v>
       </c>
-      <c r="H129" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('MEET PD/OTHER', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A129 &amp; "', " &amp; C129 &amp; ", " &amp; D129 &amp; ", " &amp; E129 &amp; ", " &amp; F129 &amp; ", " &amp; G129 &amp; ", " &amp; H129 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('JUV CONVEY', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B130">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -4719,14 +5109,17 @@
       <c r="G130">
         <v>0</v>
       </c>
-      <c r="H130" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('MFD OTHER', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A130 &amp; "', " &amp; C130 &amp; ", " &amp; D130 &amp; ", " &amp; E130 &amp; ", " &amp; F130 &amp; ", " &amp; G130 &amp; ", " &amp; H130 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('LANDLORD/TEN TRB', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="B131">
         <v>3</v>
@@ -4746,14 +5139,17 @@
       <c r="G131">
         <v>0</v>
       </c>
-      <c r="H131" t="str">
-        <f t="shared" ref="H131:H194" si="2">"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('" &amp; A131 &amp; "', " &amp; C131 &amp; ", " &amp; D131 &amp; ", " &amp; E131 &amp; ", " &amp; F131 &amp; ", " &amp; G131 &amp; ")"</f>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('MFD SECURITY', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A131 &amp; "', " &amp; C131 &amp; ", " &amp; D131 &amp; ", " &amp; E131 &amp; ", " &amp; F131 &amp; ", " &amp; G131 &amp; ", " &amp; H131 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('LOCKOUT', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="B132" t="s">
         <v>158</v>
@@ -4773,18 +5169,21 @@
       <c r="G132">
         <v>0</v>
       </c>
-      <c r="H132" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('MISSING CHECK', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A132 &amp; "', " &amp; C132 &amp; ", " &amp; D132 &amp; ", " &amp; E132 &amp; ", " &amp; F132 &amp; ", " &amp; G132 &amp; ", " &amp; H132 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('LOITERING', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>124</v>
+      </c>
+      <c r="B133">
         <v>41</v>
       </c>
-      <c r="B133" t="s">
-        <v>158</v>
-      </c>
       <c r="C133">
         <v>0</v>
       </c>
@@ -4800,14 +5199,17 @@
       <c r="G133">
         <v>0</v>
       </c>
-      <c r="H133" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('MISSING REPT', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A133 &amp; "', " &amp; C133 &amp; ", " &amp; D133 &amp; ", " &amp; E133 &amp; ", " &amp; F133 &amp; ", " &amp; G133 &amp; ", " &amp; H133 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('LOOSE ANIMAL', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="B134" t="s">
         <v>158</v>
@@ -4827,14 +5229,17 @@
       <c r="G134">
         <v>0</v>
       </c>
-      <c r="H134" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('MISSING RETURN', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A134 &amp; "', " &amp; C134 &amp; ", " &amp; D134 &amp; ", " &amp; E134 &amp; ", " &amp; F134 &amp; ", " &amp; G134 &amp; ", " &amp; H134 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('LOUD MUSIC – BUS', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B135" t="s">
         <v>158</v>
@@ -4854,17 +5259,20 @@
       <c r="G135">
         <v>0</v>
       </c>
-      <c r="H135" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('MO', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A135 &amp; "', " &amp; C135 &amp; ", " &amp; D135 &amp; ", " &amp; E135 &amp; ", " &amp; F135 &amp; ", " &amp; G135 &amp; ", " &amp; H135 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('LOUD MUSIC – OTHER', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>189</v>
-      </c>
-      <c r="B136">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B136" t="s">
+        <v>158</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -4881,14 +5289,17 @@
       <c r="G136">
         <v>0</v>
       </c>
-      <c r="H136" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('MPD MON ALARM', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A136 &amp; "', " &amp; C136 &amp; ", " &amp; D136 &amp; ", " &amp; E136 &amp; ", " &amp; F136 &amp; ", " &amp; G136 &amp; ", " &amp; H136 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('LOUD MUSIC – RES', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B137" t="s">
         <v>158</v>
@@ -4908,17 +5319,20 @@
       <c r="G137">
         <v>0</v>
       </c>
-      <c r="H137" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('MPD MONITORED ALARM', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A137 &amp; "', " &amp; C137 &amp; ", " &amp; D137 &amp; ", " &amp; E137 &amp; ", " &amp; F137 &amp; ", " &amp; G137 &amp; ", " &amp; H137 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('LOUD MUSIC – VEH', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>190</v>
-      </c>
-      <c r="B138">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="B138" t="s">
+        <v>158</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -4935,17 +5349,20 @@
       <c r="G138">
         <v>0</v>
       </c>
-      <c r="H138" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('NETWORK CRIMINAL', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A138 &amp; "', " &amp; C138 &amp; ", " &amp; D138 &amp; ", " &amp; E138 &amp; ", " &amp; F138 &amp; ", " &amp; G138 &amp; ", " &amp; H138 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('MAIL-RUN', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>64</v>
-      </c>
-      <c r="B139">
-        <v>107</v>
+        <v>19</v>
+      </c>
+      <c r="B139" t="s">
+        <v>158</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -4962,17 +5379,20 @@
       <c r="G139">
         <v>0</v>
       </c>
-      <c r="H139" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('NOISE NUISANCE', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A139 &amp; "', " &amp; C139 &amp; ", " &amp; D139 &amp; ", " &amp; E139 &amp; ", " &amp; F139 &amp; ", " &amp; G139 &amp; ", " &amp; H139 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('MARINE VIOL', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B140">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -4989,17 +5409,20 @@
       <c r="G140">
         <v>0</v>
       </c>
-      <c r="H140" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('NON PURSUIT', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A140 &amp; "', " &amp; C140 &amp; ", " &amp; D140 &amp; ", " &amp; E140 &amp; ", " &amp; F140 &amp; ", " &amp; G140 &amp; ", " &amp; H140 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('MED RUN', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B141">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -5016,17 +5439,20 @@
       <c r="G141">
         <v>0</v>
       </c>
-      <c r="H141" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('NON PURSUIT NO P', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A141 &amp; "', " &amp; C141 &amp; ", " &amp; D141 &amp; ", " &amp; E141 &amp; ", " &amp; F141 &amp; ", " &amp; G141 &amp; ", " &amp; H141 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('MEET GOVT AGENCY', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>68</v>
-      </c>
-      <c r="B142">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="B142" t="s">
+        <v>158</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -5043,72 +5469,81 @@
       <c r="G142">
         <v>0</v>
       </c>
-      <c r="H142" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('NOTIFICATION', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A142 &amp; "', " &amp; C142 &amp; ", " &amp; D142 &amp; ", " &amp; E142 &amp; ", " &amp; F142 &amp; ", " &amp; G142 &amp; ", " &amp; H142 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('MEET PD/OTHER', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>80</v>
-      </c>
-      <c r="B143" t="s">
+        <v>188</v>
+      </c>
+      <c r="B143">
+        <v>7</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A143 &amp; "', " &amp; C143 &amp; ", " &amp; D143 &amp; ", " &amp; E143 &amp; ", " &amp; F143 &amp; ", " &amp; G143 &amp; ", " &amp; H143 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('MFD OTHER', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>33</v>
+      </c>
+      <c r="B144">
+        <v>3</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A144 &amp; "', " &amp; C144 &amp; ", " &amp; D144 &amp; ", " &amp; E144 &amp; ", " &amp; F144 &amp; ", " &amp; G144 &amp; ", " &amp; H144 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('MFD SECURITY', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>37</v>
+      </c>
+      <c r="B145" t="s">
         <v>158</v>
       </c>
-      <c r="C143">
-        <v>0</v>
-      </c>
-      <c r="D143">
-        <v>0</v>
-      </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143">
-        <v>0</v>
-      </c>
-      <c r="G143">
-        <v>0</v>
-      </c>
-      <c r="H143" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('OPEN HYDRANT', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>193</v>
-      </c>
-      <c r="B144">
-        <v>179</v>
-      </c>
-      <c r="C144">
-        <v>0</v>
-      </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-      <c r="F144">
-        <v>0</v>
-      </c>
-      <c r="G144">
-        <v>0</v>
-      </c>
-      <c r="H144" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('OUT OF SERVICE', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>84</v>
-      </c>
-      <c r="B145">
-        <v>2</v>
-      </c>
       <c r="C145">
         <v>0</v>
       </c>
@@ -5124,17 +5559,20 @@
       <c r="G145">
         <v>0</v>
       </c>
-      <c r="H145" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('OVERTURNED BOAT', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A145 &amp; "', " &amp; C145 &amp; ", " &amp; D145 &amp; ", " &amp; E145 &amp; ", " &amp; F145 &amp; ", " &amp; G145 &amp; ", " &amp; H145 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('MISSING CHECK', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>195</v>
-      </c>
-      <c r="B146">
-        <v>120</v>
+        <v>41</v>
+      </c>
+      <c r="B146" t="s">
+        <v>158</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -5151,17 +5589,20 @@
       <c r="G146">
         <v>0</v>
       </c>
-      <c r="H146" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('PARK AND WALK', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A146 &amp; "', " &amp; C146 &amp; ", " &amp; D146 &amp; ", " &amp; E146 &amp; ", " &amp; F146 &amp; ", " &amp; G146 &amp; ", " &amp; H146 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('MISSING REPT', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>88</v>
-      </c>
-      <c r="B147">
-        <v>31</v>
+        <v>49</v>
+      </c>
+      <c r="B147" t="s">
+        <v>158</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -5178,17 +5619,20 @@
       <c r="G147">
         <v>0</v>
       </c>
-      <c r="H147" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('PARKING TROUBLE', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A147 &amp; "', " &amp; C147 &amp; ", " &amp; D147 &amp; ", " &amp; E147 &amp; ", " &amp; F147 &amp; ", " &amp; G147 &amp; ", " &amp; H147 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('MISSING RETURN', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>196</v>
-      </c>
-      <c r="B148">
-        <v>411</v>
+        <v>52</v>
+      </c>
+      <c r="B148" t="s">
+        <v>158</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -5205,17 +5649,20 @@
       <c r="G148">
         <v>0</v>
       </c>
-      <c r="H148" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('PATROL', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A148 &amp; "', " &amp; C148 &amp; ", " &amp; D148 &amp; ", " &amp; E148 &amp; ", " &amp; F148 &amp; ", " &amp; G148 &amp; ", " &amp; H148 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('MO', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -5232,14 +5679,17 @@
       <c r="G149">
         <v>0</v>
       </c>
-      <c r="H149" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('PD/OTHER IN MKE', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A149 &amp; "', " &amp; C149 &amp; ", " &amp; D149 &amp; ", " &amp; E149 &amp; ", " &amp; F149 &amp; ", " &amp; G149 &amp; ", " &amp; H149 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('MPD MON ALARM', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="B150" t="s">
         <v>158</v>
@@ -5259,1232 +5709,1370 @@
       <c r="G150">
         <v>0</v>
       </c>
-      <c r="H150" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('PHONE CALL CMPLNT', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A150 &amp; "', " &amp; C150 &amp; ", " &amp; D150 &amp; ", " &amp; E150 &amp; ", " &amp; F150 &amp; ", " &amp; G150 &amp; ", " &amp; H150 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('MPD MONITORED ALARM', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>64</v>
+      </c>
+      <c r="B151">
+        <v>107</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A151 &amp; "', " &amp; C151 &amp; ", " &amp; D151 &amp; ", " &amp; E151 &amp; ", " &amp; F151 &amp; ", " &amp; G151 &amp; ", " &amp; H151 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('NOISE NUISANCE', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>191</v>
+      </c>
+      <c r="B152">
+        <v>4</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A152 &amp; "', " &amp; C152 &amp; ", " &amp; D152 &amp; ", " &amp; E152 &amp; ", " &amp; F152 &amp; ", " &amp; G152 &amp; ", " &amp; H152 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('NON PURSUIT', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>192</v>
+      </c>
+      <c r="B153">
+        <v>10</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A153 &amp; "', " &amp; C153 &amp; ", " &amp; D153 &amp; ", " &amp; E153 &amp; ", " &amp; F153 &amp; ", " &amp; G153 &amp; ", " &amp; H153 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('NON PURSUIT NO P', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>68</v>
+      </c>
+      <c r="B154">
+        <v>19</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A154 &amp; "', " &amp; C154 &amp; ", " &amp; D154 &amp; ", " &amp; E154 &amp; ", " &amp; F154 &amp; ", " &amp; G154 &amp; ", " &amp; H154 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('NOTIFICATION', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>80</v>
+      </c>
+      <c r="B155" t="s">
+        <v>158</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A155 &amp; "', " &amp; C155 &amp; ", " &amp; D155 &amp; ", " &amp; E155 &amp; ", " &amp; F155 &amp; ", " &amp; G155 &amp; ", " &amp; H155 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('OPEN HYDRANT', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>193</v>
+      </c>
+      <c r="B156">
+        <v>179</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A156 &amp; "', " &amp; C156 &amp; ", " &amp; D156 &amp; ", " &amp; E156 &amp; ", " &amp; F156 &amp; ", " &amp; G156 &amp; ", " &amp; H156 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('OUT OF SERVICE', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>84</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A157 &amp; "', " &amp; C157 &amp; ", " &amp; D157 &amp; ", " &amp; E157 &amp; ", " &amp; F157 &amp; ", " &amp; G157 &amp; ", " &amp; H157 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('OVERTURNED BOAT', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>195</v>
+      </c>
+      <c r="B158">
+        <v>120</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A158 &amp; "', " &amp; C158 &amp; ", " &amp; D158 &amp; ", " &amp; E158 &amp; ", " &amp; F158 &amp; ", " &amp; G158 &amp; ", " &amp; H158 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('PARK AND WALK', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>88</v>
+      </c>
+      <c r="B159">
+        <v>31</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A159 &amp; "', " &amp; C159 &amp; ", " &amp; D159 &amp; ", " &amp; E159 &amp; ", " &amp; F159 &amp; ", " &amp; G159 &amp; ", " &amp; H159 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('PARKING TROUBLE', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>196</v>
+      </c>
+      <c r="B160">
+        <v>411</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A160 &amp; "', " &amp; C160 &amp; ", " &amp; D160 &amp; ", " &amp; E160 &amp; ", " &amp; F160 &amp; ", " &amp; G160 &amp; ", " &amp; H160 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('PATROL', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>197</v>
+      </c>
+      <c r="B161">
+        <v>3</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A161 &amp; "', " &amp; C161 &amp; ", " &amp; D161 &amp; ", " &amp; E161 &amp; ", " &amp; F161 &amp; ", " &amp; G161 &amp; ", " &amp; H161 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('PD/OTHER IN MKE', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>92</v>
+      </c>
+      <c r="B162" t="s">
+        <v>158</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A162 &amp; "', " &amp; C162 &amp; ", " &amp; D162 &amp; ", " &amp; E162 &amp; ", " &amp; F162 &amp; ", " &amp; G162 &amp; ", " &amp; H162 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('PHONE CALL CMPLNT', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>198</v>
       </c>
-      <c r="B151">
-        <v>2</v>
-      </c>
-      <c r="C151">
-        <v>0</v>
-      </c>
-      <c r="D151">
-        <v>0</v>
-      </c>
-      <c r="E151">
-        <v>0</v>
-      </c>
-      <c r="F151">
-        <v>0</v>
-      </c>
-      <c r="G151">
-        <v>0</v>
-      </c>
-      <c r="H151" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('PHONE CALL COMPL', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="B163">
+        <v>2</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A163 &amp; "', " &amp; C163 &amp; ", " &amp; D163 &amp; ", " &amp; E163 &amp; ", " &amp; F163 &amp; ", " &amp; G163 &amp; ", " &amp; H163 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('PHONE CALL COMPL', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>199</v>
       </c>
-      <c r="B152">
-        <v>1</v>
-      </c>
-      <c r="C152">
-        <v>0</v>
-      </c>
-      <c r="D152">
-        <v>0</v>
-      </c>
-      <c r="E152">
-        <v>0</v>
-      </c>
-      <c r="F152">
-        <v>0</v>
-      </c>
-      <c r="G152">
-        <v>0</v>
-      </c>
-      <c r="H152" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('PHOTO ASSIGN', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A164 &amp; "', " &amp; C164 &amp; ", " &amp; D164 &amp; ", " &amp; E164 &amp; ", " &amp; F164 &amp; ", " &amp; G164 &amp; ", " &amp; H164 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('PHOTO ASSIGN', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>96</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B165" t="s">
         <v>158</v>
       </c>
-      <c r="C153">
-        <v>0</v>
-      </c>
-      <c r="D153">
-        <v>0</v>
-      </c>
-      <c r="E153">
-        <v>0</v>
-      </c>
-      <c r="F153">
-        <v>0</v>
-      </c>
-      <c r="G153">
-        <v>0</v>
-      </c>
-      <c r="H153" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('PICKUP PARTNER', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A165 &amp; "', " &amp; C165 &amp; ", " &amp; D165 &amp; ", " &amp; E165 &amp; ", " &amp; F165 &amp; ", " &amp; G165 &amp; ", " &amp; H165 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('PICKUP PARTNER', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>200</v>
       </c>
-      <c r="B154">
-        <v>2</v>
-      </c>
-      <c r="C154">
-        <v>0</v>
-      </c>
-      <c r="D154">
-        <v>0</v>
-      </c>
-      <c r="E154">
-        <v>0</v>
-      </c>
-      <c r="F154">
-        <v>0</v>
-      </c>
-      <c r="G154">
-        <v>0</v>
-      </c>
-      <c r="H154" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('PRISONER BOOKING', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="B166">
+        <v>2</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A166 &amp; "', " &amp; C166 &amp; ", " &amp; D166 &amp; ", " &amp; E166 &amp; ", " &amp; F166 &amp; ", " &amp; G166 &amp; ", " &amp; H166 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('PRISONER BOOKING', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>100</v>
       </c>
-      <c r="B155">
+      <c r="B167">
         <v>75</v>
       </c>
-      <c r="C155">
-        <v>0</v>
-      </c>
-      <c r="D155">
-        <v>0</v>
-      </c>
-      <c r="E155">
-        <v>0</v>
-      </c>
-      <c r="F155">
-        <v>0</v>
-      </c>
-      <c r="G155">
-        <v>0</v>
-      </c>
-      <c r="H155" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('PRISONER TRANS', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A167 &amp; "', " &amp; C167 &amp; ", " &amp; D167 &amp; ", " &amp; E167 &amp; ", " &amp; F167 &amp; ", " &amp; G167 &amp; ", " &amp; H167 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('PRISONER TRANS', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>201</v>
       </c>
-      <c r="B156">
+      <c r="B168">
         <v>3</v>
       </c>
-      <c r="C156">
-        <v>0</v>
-      </c>
-      <c r="D156">
-        <v>0</v>
-      </c>
-      <c r="E156">
-        <v>0</v>
-      </c>
-      <c r="F156">
-        <v>0</v>
-      </c>
-      <c r="G156">
-        <v>0</v>
-      </c>
-      <c r="H156" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('PROB_PAROL_CK_RQ', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A168 &amp; "', " &amp; C168 &amp; ", " &amp; D168 &amp; ", " &amp; E168 &amp; ", " &amp; F168 &amp; ", " &amp; G168 &amp; ", " &amp; H168 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('PROB_PAROL_CK_RQ', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>202</v>
       </c>
-      <c r="B157">
+      <c r="B169">
         <v>85</v>
       </c>
-      <c r="C157">
-        <v>0</v>
-      </c>
-      <c r="D157">
-        <v>0</v>
-      </c>
-      <c r="E157">
-        <v>0</v>
-      </c>
-      <c r="F157">
-        <v>0</v>
-      </c>
-      <c r="G157">
-        <v>0</v>
-      </c>
-      <c r="H157" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('PROBATION/PAROLE', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A169 &amp; "', " &amp; C169 &amp; ", " &amp; D169 &amp; ", " &amp; E169 &amp; ", " &amp; F169 &amp; ", " &amp; G169 &amp; ", " &amp; H169 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('PROBATION/PAROLE', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>204</v>
       </c>
-      <c r="B158">
+      <c r="B170">
         <v>92</v>
       </c>
-      <c r="C158">
-        <v>0</v>
-      </c>
-      <c r="D158">
-        <v>0</v>
-      </c>
-      <c r="E158">
-        <v>0</v>
-      </c>
-      <c r="F158">
-        <v>0</v>
-      </c>
-      <c r="G158">
-        <v>0</v>
-      </c>
-      <c r="H158" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('PROPERTY PICKUP', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A170 &amp; "', " &amp; C170 &amp; ", " &amp; D170 &amp; ", " &amp; E170 &amp; ", " &amp; F170 &amp; ", " &amp; G170 &amp; ", " &amp; H170 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('PROPERTY PICKUP', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>112</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B171" t="s">
         <v>158</v>
       </c>
-      <c r="C159">
-        <v>0</v>
-      </c>
-      <c r="D159">
-        <v>0</v>
-      </c>
-      <c r="E159">
-        <v>0</v>
-      </c>
-      <c r="F159">
-        <v>0</v>
-      </c>
-      <c r="G159">
-        <v>0</v>
-      </c>
-      <c r="H159" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('PROWLERS', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>206</v>
-      </c>
-      <c r="B160">
-        <v>44</v>
-      </c>
-      <c r="C160">
-        <v>0</v>
-      </c>
-      <c r="D160">
-        <v>1</v>
-      </c>
-      <c r="E160">
-        <v>0</v>
-      </c>
-      <c r="F160">
-        <v>0</v>
-      </c>
-      <c r="G160">
-        <v>0</v>
-      </c>
-      <c r="H160" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('RECKLESS VEHICLE', 0, 1, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A171 &amp; "', " &amp; C171 &amp; ", " &amp; D171 &amp; ", " &amp; E171 &amp; ", " &amp; F171 &amp; ", " &amp; G171 &amp; ", " &amp; H171 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('PROWLERS', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>125</v>
       </c>
-      <c r="B161">
-        <v>1</v>
-      </c>
-      <c r="C161">
-        <v>0</v>
-      </c>
-      <c r="D161">
-        <v>0</v>
-      </c>
-      <c r="E161">
-        <v>0</v>
-      </c>
-      <c r="F161">
-        <v>0</v>
-      </c>
-      <c r="G161">
-        <v>0</v>
-      </c>
-      <c r="H161" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('RECOVERED PROP', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A172 &amp; "', " &amp; C172 &amp; ", " &amp; D172 &amp; ", " &amp; E172 &amp; ", " &amp; F172 &amp; ", " &amp; G172 &amp; ", " &amp; H172 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('RECOVERED PROP', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>129</v>
       </c>
-      <c r="B162">
+      <c r="B173">
         <v>3</v>
       </c>
-      <c r="C162">
-        <v>0</v>
-      </c>
-      <c r="D162">
-        <v>0</v>
-      </c>
-      <c r="E162">
-        <v>0</v>
-      </c>
-      <c r="F162">
-        <v>0</v>
-      </c>
-      <c r="G162">
-        <v>0</v>
-      </c>
-      <c r="H162" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('RECOVERED VEH', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A173 &amp; "', " &amp; C173 &amp; ", " &amp; D173 &amp; ", " &amp; E173 &amp; ", " &amp; F173 &amp; ", " &amp; G173 &amp; ", " &amp; H173 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('RECOVERED VEH', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>133</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B174" t="s">
         <v>158</v>
       </c>
-      <c r="C163">
-        <v>0</v>
-      </c>
-      <c r="D163">
-        <v>0</v>
-      </c>
-      <c r="E163">
-        <v>0</v>
-      </c>
-      <c r="F163">
-        <v>0</v>
-      </c>
-      <c r="G163">
-        <v>0</v>
-      </c>
-      <c r="H163" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('REPORT TO (10-22)', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A174 &amp; "', " &amp; C174 &amp; ", " &amp; D174 &amp; ", " &amp; E174 &amp; ", " &amp; F174 &amp; ", " &amp; G174 &amp; ", " &amp; H174 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('REPORT TO (10-22)', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>207</v>
       </c>
-      <c r="B164">
+      <c r="B175">
         <v>241</v>
       </c>
-      <c r="C164">
-        <v>0</v>
-      </c>
-      <c r="D164">
-        <v>0</v>
-      </c>
-      <c r="E164">
-        <v>0</v>
-      </c>
-      <c r="F164">
-        <v>0</v>
-      </c>
-      <c r="G164">
-        <v>0</v>
-      </c>
-      <c r="H164" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('REPORTS', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A175 &amp; "', " &amp; C175 &amp; ", " &amp; D175 &amp; ", " &amp; E175 &amp; ", " &amp; F175 &amp; ", " &amp; G175 &amp; ", " &amp; H175 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('REPORTS', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>208</v>
       </c>
-      <c r="B165">
+      <c r="B176">
         <v>665</v>
       </c>
-      <c r="C165">
-        <v>0</v>
-      </c>
-      <c r="D165">
-        <v>0</v>
-      </c>
-      <c r="E165">
-        <v>0</v>
-      </c>
-      <c r="F165">
-        <v>0</v>
-      </c>
-      <c r="G165">
-        <v>0</v>
-      </c>
-      <c r="H165" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('RETURN STATION', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A176 &amp; "', " &amp; C176 &amp; ", " &amp; D176 &amp; ", " &amp; E176 &amp; ", " &amp; F176 &amp; ", " &amp; G176 &amp; ", " &amp; H176 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('RETURN STATION', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>211</v>
       </c>
-      <c r="B166">
+      <c r="B177">
         <v>18</v>
       </c>
-      <c r="C166">
-        <v>0</v>
-      </c>
-      <c r="D166">
-        <v>0</v>
-      </c>
-      <c r="E166">
-        <v>0</v>
-      </c>
-      <c r="F166">
-        <v>0</v>
-      </c>
-      <c r="G166">
-        <v>0</v>
-      </c>
-      <c r="H166" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('SCHL MONITORING', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A177 &amp; "', " &amp; C177 &amp; ", " &amp; D177 &amp; ", " &amp; E177 &amp; ", " &amp; F177 &amp; ", " &amp; G177 &amp; ", " &amp; H177 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('SCHL MONITORING', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>212</v>
       </c>
-      <c r="B167">
+      <c r="B178">
         <v>4</v>
       </c>
-      <c r="C167">
-        <v>0</v>
-      </c>
-      <c r="D167">
-        <v>0</v>
-      </c>
-      <c r="E167">
-        <v>0</v>
-      </c>
-      <c r="F167">
-        <v>0</v>
-      </c>
-      <c r="G167">
-        <v>0</v>
-      </c>
-      <c r="H167" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('SCHOOL', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A178 &amp; "', " &amp; C178 &amp; ", " &amp; D178 &amp; ", " &amp; E178 &amp; ", " &amp; F178 &amp; ", " &amp; G178 &amp; ", " &amp; H178 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('SCHOOL', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>13</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B179" t="s">
         <v>158</v>
       </c>
-      <c r="C168">
-        <v>0</v>
-      </c>
-      <c r="D168">
-        <v>0</v>
-      </c>
-      <c r="E168">
-        <v>0</v>
-      </c>
-      <c r="F168">
-        <v>0</v>
-      </c>
-      <c r="G168">
-        <v>0</v>
-      </c>
-      <c r="H168" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('SCHOOL CROSSING', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A179 &amp; "', " &amp; C179 &amp; ", " &amp; D179 &amp; ", " &amp; E179 &amp; ", " &amp; F179 &amp; ", " &amp; G179 &amp; ", " &amp; H179 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('SCHOOL CROSSING', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>213</v>
       </c>
-      <c r="B169">
-        <v>1</v>
-      </c>
-      <c r="C169">
-        <v>0</v>
-      </c>
-      <c r="D169">
-        <v>0</v>
-      </c>
-      <c r="E169">
-        <v>0</v>
-      </c>
-      <c r="F169">
-        <v>0</v>
-      </c>
-      <c r="G169">
-        <v>0</v>
-      </c>
-      <c r="H169" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('SEND SQUAD/MEET', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>23</v>
-      </c>
-      <c r="B170">
-        <v>29</v>
-      </c>
-      <c r="C170">
-        <v>0</v>
-      </c>
-      <c r="D170">
-        <v>0</v>
-      </c>
-      <c r="E170">
-        <v>0</v>
-      </c>
-      <c r="F170">
-        <v>0</v>
-      </c>
-      <c r="G170">
-        <v>0</v>
-      </c>
-      <c r="H170" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('SHOPLIFTER', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>34</v>
-      </c>
-      <c r="B171">
-        <v>10</v>
-      </c>
-      <c r="C171">
-        <v>0</v>
-      </c>
-      <c r="D171">
-        <v>0</v>
-      </c>
-      <c r="E171">
-        <v>0</v>
-      </c>
-      <c r="F171">
-        <v>0</v>
-      </c>
-      <c r="G171">
-        <v>0</v>
-      </c>
-      <c r="H171" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('SOLICITING', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A180 &amp; "', " &amp; C180 &amp; ", " &amp; D180 &amp; ", " &amp; E180 &amp; ", " &amp; F180 &amp; ", " &amp; G180 &amp; ", " &amp; H180 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('SEND SQUAD/MEET', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>214</v>
       </c>
-      <c r="B172">
+      <c r="B181">
         <v>284</v>
       </c>
-      <c r="C172">
-        <v>0</v>
-      </c>
-      <c r="D172">
-        <v>0</v>
-      </c>
-      <c r="E172">
-        <v>0</v>
-      </c>
-      <c r="F172">
-        <v>0</v>
-      </c>
-      <c r="G172">
-        <v>0</v>
-      </c>
-      <c r="H172" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('SPECIAL ASSIGN', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A181 &amp; "', " &amp; C181 &amp; ", " &amp; D181 &amp; ", " &amp; E181 &amp; ", " &amp; F181 &amp; ", " &amp; G181 &amp; ", " &amp; H181 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('SPECIAL ASSIGN', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>42</v>
       </c>
-      <c r="B173">
-        <v>1</v>
-      </c>
-      <c r="C173">
-        <v>0</v>
-      </c>
-      <c r="D173">
-        <v>0</v>
-      </c>
-      <c r="E173">
-        <v>0</v>
-      </c>
-      <c r="F173">
-        <v>0</v>
-      </c>
-      <c r="G173">
-        <v>0</v>
-      </c>
-      <c r="H173" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('SUBJ IN WATER', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A182 &amp; "', " &amp; C182 &amp; ", " &amp; D182 &amp; ", " &amp; E182 &amp; ", " &amp; F182 &amp; ", " &amp; G182 &amp; ", " &amp; H182 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('SUBJ IN WATER', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>216</v>
       </c>
-      <c r="B174">
+      <c r="B183">
         <v>59</v>
       </c>
-      <c r="C174">
-        <v>0</v>
-      </c>
-      <c r="D174">
-        <v>0</v>
-      </c>
-      <c r="E174">
-        <v>0</v>
-      </c>
-      <c r="F174">
-        <v>0</v>
-      </c>
-      <c r="G174">
-        <v>0</v>
-      </c>
-      <c r="H174" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('SUBJ STOP', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A183 &amp; "', " &amp; C183 &amp; ", " &amp; D183 &amp; ", " &amp; E183 &amp; ", " &amp; F183 &amp; ", " &amp; G183 &amp; ", " &amp; H183 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('SUBJ STOP', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>57</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B184" t="s">
         <v>158</v>
       </c>
-      <c r="C175">
-        <v>0</v>
-      </c>
-      <c r="D175">
-        <v>0</v>
-      </c>
-      <c r="E175">
-        <v>0</v>
-      </c>
-      <c r="F175">
-        <v>0</v>
-      </c>
-      <c r="G175">
-        <v>0</v>
-      </c>
-      <c r="H175" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('SUICIDE ATTEMPT', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A184 &amp; "', " &amp; C184 &amp; ", " &amp; D184 &amp; ", " &amp; E184 &amp; ", " &amp; F184 &amp; ", " &amp; G184 &amp; ", " &amp; H184 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('SUICIDE ATTEMPT', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>218</v>
       </c>
-      <c r="B176">
+      <c r="B185">
         <v>22</v>
       </c>
-      <c r="C176">
-        <v>0</v>
-      </c>
-      <c r="D176">
-        <v>0</v>
-      </c>
-      <c r="E176">
-        <v>0</v>
-      </c>
-      <c r="F176">
-        <v>0</v>
-      </c>
-      <c r="G176">
-        <v>0</v>
-      </c>
-      <c r="H176" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('SUSPICIOUS-OTH', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A185 &amp; "', " &amp; C185 &amp; ", " &amp; D185 &amp; ", " &amp; E185 &amp; ", " &amp; F185 &amp; ", " &amp; G185 &amp; ", " &amp; H185 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('SUSPICIOUS-OTH', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>219</v>
       </c>
-      <c r="B177">
+      <c r="B186">
         <v>56</v>
       </c>
-      <c r="C177">
-        <v>0</v>
-      </c>
-      <c r="D177">
-        <v>0</v>
-      </c>
-      <c r="E177">
-        <v>0</v>
-      </c>
-      <c r="F177">
-        <v>0</v>
-      </c>
-      <c r="G177">
-        <v>0</v>
-      </c>
-      <c r="H177" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('TAVERN CHECK', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A186 &amp; "', " &amp; C186 &amp; ", " &amp; D186 &amp; ", " &amp; E186 &amp; ", " &amp; F186 &amp; ", " &amp; G186 &amp; ", " &amp; H186 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('TAVERN CHECK', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>73</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B187" t="s">
         <v>158</v>
       </c>
-      <c r="C178">
-        <v>0</v>
-      </c>
-      <c r="D178">
-        <v>0</v>
-      </c>
-      <c r="E178">
-        <v>0</v>
-      </c>
-      <c r="F178">
-        <v>0</v>
-      </c>
-      <c r="G178">
-        <v>0</v>
-      </c>
-      <c r="H178" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('TAVERN VIOLATION', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>222</v>
-      </c>
-      <c r="B179">
-        <v>3</v>
-      </c>
-      <c r="C179">
-        <v>0</v>
-      </c>
-      <c r="D179">
-        <v>0</v>
-      </c>
-      <c r="E179">
-        <v>0</v>
-      </c>
-      <c r="F179">
-        <v>0</v>
-      </c>
-      <c r="G179">
-        <v>1</v>
-      </c>
-      <c r="H179" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('TRAFFIC CONTROL', 0, 0, 0, 0, 1)</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>93</v>
-      </c>
-      <c r="B180">
-        <v>116</v>
-      </c>
-      <c r="C180">
-        <v>0</v>
-      </c>
-      <c r="D180">
-        <v>0</v>
-      </c>
-      <c r="E180">
-        <v>0</v>
-      </c>
-      <c r="F180">
-        <v>0</v>
-      </c>
-      <c r="G180">
-        <v>1</v>
-      </c>
-      <c r="H180" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('TRAFFIC HAZARD', 0, 0, 0, 0, 1)</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>223</v>
-      </c>
-      <c r="B181">
-        <v>17</v>
-      </c>
-      <c r="C181">
-        <v>0</v>
-      </c>
-      <c r="D181">
-        <v>0</v>
-      </c>
-      <c r="E181">
-        <v>0</v>
-      </c>
-      <c r="F181">
-        <v>0</v>
-      </c>
-      <c r="G181">
-        <v>1</v>
-      </c>
-      <c r="H181" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('TRAFFIC LASER', 0, 0, 0, 0, 1)</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>224</v>
-      </c>
-      <c r="B182">
-        <v>1027</v>
-      </c>
-      <c r="C182">
-        <v>0</v>
-      </c>
-      <c r="D182">
-        <v>0</v>
-      </c>
-      <c r="E182">
-        <v>0</v>
-      </c>
-      <c r="F182">
-        <v>0</v>
-      </c>
-      <c r="G182">
-        <v>1</v>
-      </c>
-      <c r="H182" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('TRAFFIC STOP', 0, 0, 0, 0, 1)</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A187 &amp; "', " &amp; C187 &amp; ", " &amp; D187 &amp; ", " &amp; E187 &amp; ", " &amp; F187 &amp; ", " &amp; G187 &amp; ", " &amp; H187 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('TAVERN VIOLATION', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>109</v>
       </c>
-      <c r="B183">
+      <c r="B188">
         <v>13</v>
       </c>
-      <c r="C183">
-        <v>0</v>
-      </c>
-      <c r="D183">
-        <v>0</v>
-      </c>
-      <c r="E183">
-        <v>0</v>
-      </c>
-      <c r="F183">
-        <v>0</v>
-      </c>
-      <c r="G183">
-        <v>0</v>
-      </c>
-      <c r="H183" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('TRUANT', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A188 &amp; "', " &amp; C188 &amp; ", " &amp; D188 &amp; ", " &amp; E188 &amp; ", " &amp; F188 &amp; ", " &amp; G188 &amp; ", " &amp; H188 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('TRUANT', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>113</v>
       </c>
-      <c r="B184">
-        <v>1</v>
-      </c>
-      <c r="C184">
-        <v>0</v>
-      </c>
-      <c r="D184">
-        <v>0</v>
-      </c>
-      <c r="E184">
-        <v>0</v>
-      </c>
-      <c r="F184">
-        <v>0</v>
-      </c>
-      <c r="G184">
-        <v>0</v>
-      </c>
-      <c r="H184" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('UNDEFINED', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A189 &amp; "', " &amp; C189 &amp; ", " &amp; D189 &amp; ", " &amp; E189 &amp; ", " &amp; F189 &amp; ", " &amp; G189 &amp; ", " &amp; H189 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('UNDEFINED', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>225</v>
       </c>
-      <c r="B185">
+      <c r="B190">
         <v>18</v>
       </c>
-      <c r="C185">
-        <v>0</v>
-      </c>
-      <c r="D185">
-        <v>0</v>
-      </c>
-      <c r="E185">
-        <v>0</v>
-      </c>
-      <c r="F185">
-        <v>0</v>
-      </c>
-      <c r="G185">
-        <v>0</v>
-      </c>
-      <c r="H185" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('VACANT HOUSE CHK', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A190 &amp; "', " &amp; C190 &amp; ", " &amp; D190 &amp; ", " &amp; E190 &amp; ", " &amp; F190 &amp; ", " &amp; G190 &amp; ", " &amp; H190 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('VACANT HOUSE CHK', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>118</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B191" t="s">
         <v>158</v>
       </c>
-      <c r="C186">
-        <v>0</v>
-      </c>
-      <c r="D186">
-        <v>0</v>
-      </c>
-      <c r="E186">
-        <v>0</v>
-      </c>
-      <c r="F186">
-        <v>0</v>
-      </c>
-      <c r="G186">
-        <v>0</v>
-      </c>
-      <c r="H186" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('VEH MAINTAIN', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>226</v>
-      </c>
-      <c r="B187">
-        <v>14</v>
-      </c>
-      <c r="C187">
-        <v>0</v>
-      </c>
-      <c r="D187">
-        <v>1</v>
-      </c>
-      <c r="E187">
-        <v>0</v>
-      </c>
-      <c r="F187">
-        <v>0</v>
-      </c>
-      <c r="G187">
-        <v>0</v>
-      </c>
-      <c r="H187" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('VEHICLE PURSUIT', 0, 1, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A191 &amp; "', " &amp; C191 &amp; ", " &amp; D191 &amp; ", " &amp; E191 &amp; ", " &amp; F191 &amp; ", " &amp; G191 &amp; ", " &amp; H191 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('VEH MAINTAIN', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>126</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B192" t="s">
         <v>158</v>
       </c>
-      <c r="C188">
-        <v>0</v>
-      </c>
-      <c r="D188">
-        <v>0</v>
-      </c>
-      <c r="E188">
-        <v>0</v>
-      </c>
-      <c r="F188">
-        <v>0</v>
-      </c>
-      <c r="G188">
-        <v>0</v>
-      </c>
-      <c r="H188" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('WATER MAIN BRK', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A192 &amp; "', " &amp; C192 &amp; ", " &amp; D192 &amp; ", " &amp; E192 &amp; ", " &amp; F192 &amp; ", " &amp; G192 &amp; ", " &amp; H192 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('WATER MAIN BRK', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>130</v>
       </c>
-      <c r="B189">
+      <c r="B193">
         <v>359</v>
       </c>
-      <c r="C189">
-        <v>0</v>
-      </c>
-      <c r="D189">
-        <v>0</v>
-      </c>
-      <c r="E189">
-        <v>0</v>
-      </c>
-      <c r="F189">
-        <v>0</v>
-      </c>
-      <c r="G189">
-        <v>0</v>
-      </c>
-      <c r="H189" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('WELFARE CITIZEN', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A193 &amp; "', " &amp; C193 &amp; ", " &amp; D193 &amp; ", " &amp; E193 &amp; ", " &amp; F193 &amp; ", " &amp; G193 &amp; ", " &amp; H193 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('WELFARE CITIZEN', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>134</v>
       </c>
-      <c r="B190">
+      <c r="B194">
         <v>4</v>
       </c>
-      <c r="C190">
-        <v>0</v>
-      </c>
-      <c r="D190">
-        <v>0</v>
-      </c>
-      <c r="E190">
-        <v>0</v>
-      </c>
-      <c r="F190">
-        <v>0</v>
-      </c>
-      <c r="G190">
-        <v>0</v>
-      </c>
-      <c r="H190" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('WIRES DOWN', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>252</v>
-      </c>
-      <c r="B191">
-        <v>1</v>
-      </c>
-      <c r="C191">
-        <v>0</v>
-      </c>
-      <c r="D191">
-        <v>0</v>
-      </c>
-      <c r="E191">
-        <v>0</v>
-      </c>
-      <c r="F191">
-        <v>0</v>
-      </c>
-      <c r="G191">
-        <v>0</v>
-      </c>
-      <c r="H191" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('911 ABUSE CONFIR', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A194 &amp; "', " &amp; C194 &amp; ", " &amp; D194 &amp; ", " &amp; E194 &amp; ", " &amp; F194 &amp; ", " &amp; G194 &amp; ", " &amp; H194 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('WIRES DOWN', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>253</v>
       </c>
-      <c r="B192">
-        <v>1</v>
-      </c>
-      <c r="C192">
-        <v>0</v>
-      </c>
-      <c r="D192">
-        <v>0</v>
-      </c>
-      <c r="E192">
-        <v>0</v>
-      </c>
-      <c r="F192">
-        <v>0</v>
-      </c>
-      <c r="G192">
-        <v>0</v>
-      </c>
-      <c r="H192" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('ASSIST FIRE/AMB', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>254</v>
-      </c>
-      <c r="B193">
-        <v>2</v>
-      </c>
-      <c r="C193">
-        <v>0</v>
-      </c>
-      <c r="D193">
-        <v>0</v>
-      </c>
-      <c r="E193">
-        <v>1</v>
-      </c>
-      <c r="F193">
-        <v>0</v>
-      </c>
-      <c r="G193">
-        <v>0</v>
-      </c>
-      <c r="H193" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('BURG/AUD BUSINES', 0, 0, 1, 0, 0)</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>255</v>
-      </c>
-      <c r="B194">
-        <v>1</v>
-      </c>
-      <c r="C194">
-        <v>0</v>
-      </c>
-      <c r="D194">
-        <v>1</v>
-      </c>
-      <c r="E194">
-        <v>0</v>
-      </c>
-      <c r="F194">
-        <v>0</v>
-      </c>
-      <c r="G194">
-        <v>0</v>
-      </c>
-      <c r="H194" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('CHILD ENTICEMENT', 0, 1, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A195 &amp; "', " &amp; C195 &amp; ", " &amp; D195 &amp; ", " &amp; E195 &amp; ", " &amp; F195 &amp; ", " &amp; G195 &amp; ", " &amp; H195 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('ASSIST FIRE/AMB', 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>256</v>
       </c>
-      <c r="B195">
-        <v>1</v>
-      </c>
-      <c r="C195">
-        <v>0</v>
-      </c>
-      <c r="D195">
-        <v>0</v>
-      </c>
-      <c r="E195">
-        <v>0</v>
-      </c>
-      <c r="F195">
-        <v>0</v>
-      </c>
-      <c r="G195">
-        <v>0</v>
-      </c>
-      <c r="H195" t="str">
-        <f t="shared" ref="H195:H196" si="3">"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('" &amp; A195 &amp; "', " &amp; C195 &amp; ", " &amp; D195 &amp; ", " &amp; E195 &amp; ", " &amp; F195 &amp; ", " &amp; G195 &amp; ")"</f>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('ESP TARGET ESCOR', 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>257</v>
-      </c>
       <c r="B196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -6501,12 +7089,23 @@
       <c r="G196">
         <v>0</v>
       </c>
-      <c r="H196" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic) VALUES ('SUSP PKG/DEVICE', 0, 0, 0, 0, 0)</v>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196" t="str">
+        <f>"INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('" &amp; A196 &amp; "', " &amp; C196 &amp; ", " &amp; D196 &amp; ", " &amp; E196 &amp; ", " &amp; F196 &amp; ", " &amp; G196 &amp; ", " &amp; H196 &amp; ")"</f>
+        <v>INSERT INTO PoliceDispatchCallTypes (NatureOfCall, IsCritical, IsViolent, IsProperty, IsDrug, IsTraffic, IsOtherCrime) VALUES ('ESP TARGET ESCOR', 0, 0, 0, 0, 0, 0)</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:I196">
+    <sortCondition descending="1" ref="C2:C196"/>
+    <sortCondition descending="1" ref="D2:D196"/>
+    <sortCondition descending="1" ref="E2:E196"/>
+    <sortCondition descending="1" ref="F2:F196"/>
+    <sortCondition descending="1" ref="G2:G196"/>
+    <sortCondition descending="1" ref="H2:H196"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -6516,7 +7115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F2" sqref="F2:F21"/>
     </sheetView>
@@ -12293,7 +12892,7 @@
         <v>2</v>
       </c>
       <c r="F130">
-        <f t="shared" ref="F130:F161" si="32">IF(RIGHT(E130,2) = "+S", 1, 0)</f>
+        <f t="shared" ref="F130:F137" si="32">IF(RIGHT(E130,2) = "+S", 1, 0)</f>
         <v>0</v>
       </c>
       <c r="G130">
@@ -12305,7 +12904,7 @@
         <v>2</v>
       </c>
       <c r="I130" t="str">
-        <f t="shared" ref="I130:I161" si="35">IF(ISNUMBER(FIND("-", H130)), LEFT(H130, 1), H130)</f>
+        <f t="shared" ref="I130:I137" si="35">IF(ISNUMBER(FIND("-", H130)), LEFT(H130, 1), H130)</f>
         <v>2</v>
       </c>
       <c r="J130" t="str">

--- a/Data/MPD Communications Codes.xlsx
+++ b/Data/MPD Communications Codes.xlsx
@@ -1212,8 +1212,8 @@
   <dimension ref="A1:I196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2:I196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
